--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_24_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_24_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3782330.828767573</v>
+        <v>3778025.705770505</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -661,19 +661,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>152.0747039460367</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>187.5255871663202</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>187.5255871663202</v>
+        <v>187.5255871663203</v>
       </c>
       <c r="G2" t="n">
-        <v>13.09783323005805</v>
+        <v>187.5255871663203</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -709,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>187.5255871663203</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>6.396723986041825</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>187.5255871663202</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>165.1725371760949</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -746,10 +746,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409147</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>28.83461506490921</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -800,13 +800,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>187.5255871663202</v>
+        <v>187.5255871663203</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>187.5255871663203</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>187.5255871663203</v>
       </c>
     </row>
     <row r="4">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>52.2159462544349</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>52.2159462544348</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -898,10 +898,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -910,10 +910,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>412.2518847340494</v>
+        <v>293.7114364025721</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>308.2302560714735</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>139.4987618372556</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,13 +955,13 @@
         <v>251.1015846853496</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>286.2258633731032</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -977,13 +977,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>142.4504279152378</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -1028,10 +1028,10 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.5852120974427</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8339906239991</v>
+        <v>84.07098562832888</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>45.66399984503471</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>16.04608921951057</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2443834913144</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1141,10 +1141,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>52.81715403915738</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>411.8707348436268</v>
@@ -1153,7 +1153,7 @@
         <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708287</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>124.4871121846921</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696038</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1214,25 +1214,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>20.27697994470624</v>
       </c>
       <c r="H9" t="n">
-        <v>94.50081326185511</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>36.29946757904879</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,13 +1262,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>95.17474212076276</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1280,7 +1280,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>18.15430933923915</v>
+        <v>18.15430933923925</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>13.52615597052887</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>127.7306968297364</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187867</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444129</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881311</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
         <v>327.752258470135</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128544</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>168.9775297124217</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>82.85993176808051</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012162</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1590,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D14" t="n">
         <v>354.6830416206831</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722619</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695524</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V14" t="n">
         <v>327.752258470135</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560563</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>115.7077656527124</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1773,16 +1773,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428253</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722619</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695524</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576162</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V17" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174159</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560537</v>
       </c>
     </row>
     <row r="18">
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2013,16 +2013,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>41.33703994143092</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>93.40444476188321</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012163</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2080,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722619</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444128</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560537</v>
       </c>
     </row>
     <row r="21">
@@ -2241,16 +2241,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>95.12712756824166</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,13 +2295,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>245.8796921214428</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>35.19779014108431</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>51.36569740310337</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2718,13 +2718,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>9.146142788179397</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>126.4418041083155</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2794,7 +2794,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>20.9284728855285</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>53.68707741621073</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3009,7 +3009,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3094,7 +3094,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3195,19 +3195,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>36.86080948088116</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634814</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V37" t="n">
-        <v>221.6488161050624</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3559,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986279</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>83.06560892427999</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101218</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V40" t="n">
-        <v>249.145125461015</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="41">
@@ -3742,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986279</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>4.019807611470221</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T43" t="n">
-        <v>183.6398007745143</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="44">
@@ -3994,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4039,7 +4039,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.2409687174109</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4073,7 +4073,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4149,13 +4149,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>120.1447214650588</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>161.5854408598111</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>560.6825636487957</v>
+        <v>393.8416170062759</v>
       </c>
       <c r="C2" t="n">
-        <v>407.071751582092</v>
+        <v>393.8416170062759</v>
       </c>
       <c r="D2" t="n">
-        <v>217.6519665656069</v>
+        <v>393.8416170062759</v>
       </c>
       <c r="E2" t="n">
-        <v>217.6519665656069</v>
+        <v>393.8416170062759</v>
       </c>
       <c r="F2" t="n">
-        <v>28.23218154912183</v>
+        <v>204.4218319897908</v>
       </c>
       <c r="G2" t="n">
         <v>15.00204697330562</v>
@@ -4330,52 +4330,52 @@
         <v>15.00204697330562</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678489</v>
+        <v>21.03371160678515</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058962</v>
+        <v>80.81213159058987</v>
       </c>
       <c r="L2" t="n">
         <v>191.8743094079188</v>
       </c>
       <c r="M2" t="n">
-        <v>347.121819064476</v>
+        <v>347.1218190644761</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123834</v>
+        <v>509.4952041123838</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985592</v>
+        <v>649.4845259985595</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020275</v>
+        <v>734.4611726020278</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652808</v>
+        <v>750.1023486652812</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652808</v>
+        <v>750.1023486652812</v>
       </c>
       <c r="S2" t="n">
-        <v>750.1023486652808</v>
+        <v>589.7227393823993</v>
       </c>
       <c r="T2" t="n">
-        <v>750.1023486652808</v>
+        <v>400.3029543659141</v>
       </c>
       <c r="U2" t="n">
-        <v>750.1023486652808</v>
+        <v>400.3029543659141</v>
       </c>
       <c r="V2" t="n">
-        <v>750.1023486652808</v>
+        <v>393.8416170062759</v>
       </c>
       <c r="W2" t="n">
-        <v>750.1023486652808</v>
+        <v>393.8416170062759</v>
       </c>
       <c r="X2" t="n">
-        <v>750.1023486652808</v>
+        <v>393.8416170062759</v>
       </c>
       <c r="Y2" t="n">
-        <v>560.6825636487957</v>
+        <v>393.8416170062759</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>380.2736144004534</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="C3" t="n">
-        <v>380.2736144004534</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="D3" t="n">
-        <v>380.2736144004534</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="E3" t="n">
-        <v>221.0361593949979</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="F3" t="n">
-        <v>74.50160142188287</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="G3" t="n">
-        <v>74.50160142188287</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="H3" t="n">
-        <v>74.50160142188287</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="I3" t="n">
         <v>15.00204697330562</v>
@@ -4412,49 +4412,49 @@
         <v>15.00204697330562</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024196</v>
+        <v>67.13418877024219</v>
       </c>
       <c r="L3" t="n">
-        <v>183.554828077265</v>
+        <v>183.5548280772652</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140247</v>
+        <v>338.7690911140251</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546606</v>
+        <v>512.500058754661</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476354</v>
+        <v>649.2101578476359</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017073</v>
+        <v>739.5989987017076</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652808</v>
+        <v>750.1023486652812</v>
       </c>
       <c r="R3" t="n">
-        <v>720.9764748623422</v>
+        <v>750.1023486652812</v>
       </c>
       <c r="S3" t="n">
-        <v>569.6933994169385</v>
+        <v>750.1023486652812</v>
       </c>
       <c r="T3" t="n">
-        <v>569.6933994169385</v>
+        <v>750.1023486652812</v>
       </c>
       <c r="U3" t="n">
-        <v>569.6933994169385</v>
+        <v>750.1023486652812</v>
       </c>
       <c r="V3" t="n">
-        <v>569.6933994169385</v>
+        <v>750.1023486652812</v>
       </c>
       <c r="W3" t="n">
-        <v>380.2736144004534</v>
+        <v>560.6825636487961</v>
       </c>
       <c r="X3" t="n">
-        <v>380.2736144004534</v>
+        <v>371.2627786323109</v>
       </c>
       <c r="Y3" t="n">
-        <v>380.2736144004534</v>
+        <v>181.8429936158258</v>
       </c>
     </row>
     <row r="4">
@@ -4494,46 +4494,46 @@
         <v>15.00204697330562</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230187</v>
+        <v>27.0396705623019</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170739</v>
+        <v>42.98993985170745</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396366</v>
+        <v>66.41847329396374</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702829027</v>
+        <v>67.74542702829038</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702829027</v>
+        <v>67.74542702829038</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702829027</v>
+        <v>67.74542702829038</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702829027</v>
+        <v>67.74542702829038</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702829027</v>
+        <v>67.74542702829038</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702829027</v>
+        <v>67.74542702829038</v>
       </c>
       <c r="U4" t="n">
-        <v>67.74542702829027</v>
+        <v>67.74542702829038</v>
       </c>
       <c r="V4" t="n">
-        <v>15.00204697330562</v>
+        <v>67.74542702829038</v>
       </c>
       <c r="W4" t="n">
-        <v>15.00204697330562</v>
+        <v>67.74542702829038</v>
       </c>
       <c r="X4" t="n">
-        <v>15.00204697330562</v>
+        <v>67.74542702829038</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.00204697330562</v>
+        <v>67.74542702829038</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1185.147817799032</v>
+        <v>649.5254686559063</v>
       </c>
       <c r="C5" t="n">
-        <v>816.1853008586199</v>
+        <v>649.5254686559063</v>
       </c>
       <c r="D5" t="n">
-        <v>457.9196022518694</v>
+        <v>649.5254686559063</v>
       </c>
       <c r="E5" t="n">
-        <v>457.9196022518694</v>
+        <v>649.5254686559063</v>
       </c>
       <c r="F5" t="n">
-        <v>450.974101502666</v>
+        <v>642.5799679067028</v>
       </c>
       <c r="G5" t="n">
-        <v>34.55805631675746</v>
+        <v>345.9017493182461</v>
       </c>
       <c r="H5" t="n">
-        <v>34.55805631675746</v>
+        <v>34.55805631675759</v>
       </c>
       <c r="I5" t="n">
-        <v>34.55805631675746</v>
+        <v>34.55805631675759</v>
       </c>
       <c r="J5" t="n">
-        <v>111.670553901721</v>
+        <v>111.6705539017212</v>
       </c>
       <c r="K5" t="n">
-        <v>277.9807166746958</v>
+        <v>277.9807166746963</v>
       </c>
       <c r="L5" t="n">
-        <v>521.2049416030727</v>
+        <v>521.2049416030741</v>
       </c>
       <c r="M5" t="n">
-        <v>823.5081935709129</v>
+        <v>823.5081935709151</v>
       </c>
       <c r="N5" t="n">
-        <v>1135.316836582745</v>
+        <v>1135.316836582748</v>
       </c>
       <c r="O5" t="n">
-        <v>1416.413635079231</v>
+        <v>1416.413635079236</v>
       </c>
       <c r="P5" t="n">
-        <v>1621.822248332748</v>
+        <v>1621.822248332754</v>
       </c>
       <c r="Q5" t="n">
-        <v>1727.902815837873</v>
+        <v>1727.902815837879</v>
       </c>
       <c r="R5" t="n">
-        <v>1727.902815837873</v>
+        <v>1727.902815837879</v>
       </c>
       <c r="S5" t="n">
-        <v>1727.902815837873</v>
+        <v>1586.994975598227</v>
       </c>
       <c r="T5" t="n">
-        <v>1727.902815837873</v>
+        <v>1586.994975598227</v>
       </c>
       <c r="U5" t="n">
-        <v>1474.264851509237</v>
+        <v>1333.357011269591</v>
       </c>
       <c r="V5" t="n">
-        <v>1474.264851509237</v>
+        <v>1002.29412392602</v>
       </c>
       <c r="W5" t="n">
-        <v>1474.264851509237</v>
+        <v>649.5254686559063</v>
       </c>
       <c r="X5" t="n">
-        <v>1185.147817799032</v>
+        <v>649.5254686559063</v>
       </c>
       <c r="Y5" t="n">
-        <v>1185.147817799032</v>
+        <v>649.5254686559063</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>324.9819354163753</v>
+        <v>663.7175082377064</v>
       </c>
       <c r="C6" t="n">
-        <v>324.9819354163753</v>
+        <v>489.2644789565794</v>
       </c>
       <c r="D6" t="n">
-        <v>324.9819354163753</v>
+        <v>340.3300692953281</v>
       </c>
       <c r="E6" t="n">
-        <v>181.0926142898725</v>
+        <v>181.0926142898726</v>
       </c>
       <c r="F6" t="n">
-        <v>34.55805631675746</v>
+        <v>34.55805631675759</v>
       </c>
       <c r="G6" t="n">
-        <v>34.55805631675746</v>
+        <v>34.55805631675759</v>
       </c>
       <c r="H6" t="n">
-        <v>34.55805631675746</v>
+        <v>34.55805631675759</v>
       </c>
       <c r="I6" t="n">
-        <v>34.55805631675746</v>
+        <v>34.55805631675759</v>
       </c>
       <c r="J6" t="n">
-        <v>61.66788464787464</v>
+        <v>61.66788464787503</v>
       </c>
       <c r="K6" t="n">
-        <v>186.1577239806048</v>
+        <v>186.1577239806057</v>
       </c>
       <c r="L6" t="n">
-        <v>399.8722171189953</v>
+        <v>399.8722171189968</v>
       </c>
       <c r="M6" t="n">
-        <v>668.6238185223463</v>
+        <v>668.6238185223485</v>
       </c>
       <c r="N6" t="n">
-        <v>958.8971200352428</v>
+        <v>958.897120035246</v>
       </c>
       <c r="O6" t="n">
-        <v>1202.220686228312</v>
+        <v>1202.220686228316</v>
       </c>
       <c r="P6" t="n">
-        <v>1378.176233639501</v>
+        <v>1378.176233639505</v>
       </c>
       <c r="Q6" t="n">
-        <v>1445.878660906541</v>
+        <v>1445.878660906546</v>
       </c>
       <c r="R6" t="n">
-        <v>1445.878660906541</v>
+        <v>1445.878660906546</v>
       </c>
       <c r="S6" t="n">
-        <v>1445.878660906541</v>
+        <v>1445.878660906546</v>
       </c>
       <c r="T6" t="n">
-        <v>1250.338042626296</v>
+        <v>1445.878660906546</v>
       </c>
       <c r="U6" t="n">
-        <v>1022.222900581853</v>
+        <v>1360.958473403183</v>
       </c>
       <c r="V6" t="n">
-        <v>787.0707923501097</v>
+        <v>1125.806365171441</v>
       </c>
       <c r="W6" t="n">
-        <v>532.8334356219082</v>
+        <v>871.5690084432392</v>
       </c>
       <c r="X6" t="n">
-        <v>324.9819354163753</v>
+        <v>663.7175082377064</v>
       </c>
       <c r="Y6" t="n">
-        <v>324.9819354163753</v>
+        <v>663.7175082377064</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1392.641822568833</v>
+        <v>369.8190495857988</v>
       </c>
       <c r="C7" t="n">
-        <v>1392.641822568833</v>
+        <v>200.8828666578919</v>
       </c>
       <c r="D7" t="n">
-        <v>1392.641822568833</v>
+        <v>50.76622724555614</v>
       </c>
       <c r="E7" t="n">
-        <v>1392.641822568833</v>
+        <v>34.55805631675759</v>
       </c>
       <c r="F7" t="n">
-        <v>1392.641822568833</v>
+        <v>34.55805631675759</v>
       </c>
       <c r="G7" t="n">
-        <v>1392.641822568833</v>
+        <v>34.55805631675759</v>
       </c>
       <c r="H7" t="n">
-        <v>1392.641822568833</v>
+        <v>34.55805631675759</v>
       </c>
       <c r="I7" t="n">
-        <v>1392.641822568833</v>
+        <v>34.55805631675759</v>
       </c>
       <c r="J7" t="n">
-        <v>1392.641822568833</v>
+        <v>34.55805631675759</v>
       </c>
       <c r="K7" t="n">
-        <v>1422.324432877822</v>
+        <v>64.24066662574658</v>
       </c>
       <c r="L7" t="n">
-        <v>1490.213752410486</v>
+        <v>132.1299861584109</v>
       </c>
       <c r="M7" t="n">
-        <v>1565.051804086871</v>
+        <v>206.9680378347963</v>
       </c>
       <c r="N7" t="n">
-        <v>1645.96790007161</v>
+        <v>287.8841338195355</v>
       </c>
       <c r="O7" t="n">
-        <v>1700.393922445545</v>
+        <v>342.3101561934702</v>
       </c>
       <c r="P7" t="n">
-        <v>1727.902815837873</v>
+        <v>369.8190495857988</v>
       </c>
       <c r="Q7" t="n">
-        <v>1727.902815837873</v>
+        <v>369.8190495857988</v>
       </c>
       <c r="R7" t="n">
-        <v>1727.902815837873</v>
+        <v>369.8190495857988</v>
       </c>
       <c r="S7" t="n">
-        <v>1727.902815837873</v>
+        <v>369.8190495857988</v>
       </c>
       <c r="T7" t="n">
-        <v>1727.902815837873</v>
+        <v>369.8190495857988</v>
       </c>
       <c r="U7" t="n">
-        <v>1438.767074937555</v>
+        <v>369.8190495857988</v>
       </c>
       <c r="V7" t="n">
-        <v>1438.767074937555</v>
+        <v>369.8190495857988</v>
       </c>
       <c r="W7" t="n">
-        <v>1438.767074937555</v>
+        <v>369.8190495857988</v>
       </c>
       <c r="X7" t="n">
-        <v>1438.767074937555</v>
+        <v>369.8190495857988</v>
       </c>
       <c r="Y7" t="n">
-        <v>1438.767074937555</v>
+        <v>369.8190495857988</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>852.699693425572</v>
+        <v>1310.09075811159</v>
       </c>
       <c r="C8" t="n">
-        <v>852.699693425572</v>
+        <v>1310.09075811159</v>
       </c>
       <c r="D8" t="n">
-        <v>852.699693425572</v>
+        <v>1310.09075811159</v>
       </c>
       <c r="E8" t="n">
-        <v>852.699693425572</v>
+        <v>1256.740097465976</v>
       </c>
       <c r="F8" t="n">
-        <v>845.7541926763686</v>
+        <v>845.7541926763687</v>
       </c>
       <c r="G8" t="n">
         <v>429.7231473797759</v>
@@ -4801,55 +4801,55 @@
         <v>122.3223344947425</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36919653809314</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J8" t="n">
         <v>152.5078184301901</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232722</v>
+        <v>366.8168396232717</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711877</v>
+        <v>669.5878927711865</v>
       </c>
       <c r="M8" t="n">
-        <v>1038.148464578731</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135168</v>
+        <v>1417.286540135166</v>
       </c>
       <c r="O8" t="n">
-        <v>1761.960612545599</v>
+        <v>1761.960612545596</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.63095817245</v>
+        <v>2021.630958172447</v>
       </c>
       <c r="Q8" t="n">
-        <v>2168.459826904657</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.459826904657</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S8" t="n">
-        <v>2042.715269142342</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="T8" t="n">
-        <v>1832.541271294257</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="U8" t="n">
-        <v>1578.934106956766</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="V8" t="n">
-        <v>1578.934106956766</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="W8" t="n">
-        <v>1226.165451686652</v>
+        <v>1683.55651637267</v>
       </c>
       <c r="X8" t="n">
-        <v>852.699693425572</v>
+        <v>1310.09075811159</v>
       </c>
       <c r="Y8" t="n">
-        <v>852.699693425572</v>
+        <v>1310.09075811159</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>470.9596599713523</v>
+        <v>693.0104463829875</v>
       </c>
       <c r="C9" t="n">
-        <v>470.9596599713523</v>
+        <v>518.5574171018606</v>
       </c>
       <c r="D9" t="n">
-        <v>322.025250310101</v>
+        <v>369.6230074406093</v>
       </c>
       <c r="E9" t="n">
-        <v>322.025250310101</v>
+        <v>210.3855524351538</v>
       </c>
       <c r="F9" t="n">
-        <v>175.490692336986</v>
+        <v>63.85099446203876</v>
       </c>
       <c r="G9" t="n">
-        <v>175.490692336986</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H9" t="n">
-        <v>80.03532540581921</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I9" t="n">
-        <v>43.36919653809314</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J9" t="n">
-        <v>89.55356510562342</v>
+        <v>89.55356510562316</v>
       </c>
       <c r="K9" t="n">
-        <v>246.6448318504524</v>
+        <v>246.6448318504519</v>
       </c>
       <c r="L9" t="n">
-        <v>504.1959674104403</v>
+        <v>504.1959674104395</v>
       </c>
       <c r="M9" t="n">
-        <v>824.1028628789501</v>
+        <v>824.1028628789488</v>
       </c>
       <c r="N9" t="n">
-        <v>1166.885386873582</v>
+        <v>1166.88538687358</v>
       </c>
       <c r="O9" t="n">
-        <v>1458.244633128148</v>
+        <v>1458.244633128146</v>
       </c>
       <c r="P9" t="n">
-        <v>1672.753048689049</v>
+        <v>1672.753048689047</v>
       </c>
       <c r="Q9" t="n">
-        <v>1766.227047333489</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="R9" t="n">
-        <v>1766.227047333489</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="S9" t="n">
-        <v>1627.262386835207</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="T9" t="n">
-        <v>1432.552065309183</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="U9" t="n">
-        <v>1336.415962156897</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="V9" t="n">
-        <v>1101.263853925155</v>
+        <v>1531.074939101744</v>
       </c>
       <c r="W9" t="n">
-        <v>847.0264971969532</v>
+        <v>1276.837582373542</v>
       </c>
       <c r="X9" t="n">
-        <v>639.1749969914204</v>
+        <v>1068.986082168009</v>
       </c>
       <c r="Y9" t="n">
-        <v>639.1749969914204</v>
+        <v>861.2257834030556</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>209.6199763217379</v>
+        <v>506.6265632319841</v>
       </c>
       <c r="C10" t="n">
-        <v>209.6199763217379</v>
+        <v>506.6265632319841</v>
       </c>
       <c r="D10" t="n">
-        <v>209.6199763217379</v>
+        <v>356.5099238196483</v>
       </c>
       <c r="E10" t="n">
-        <v>61.70688273934481</v>
+        <v>208.5968302372552</v>
       </c>
       <c r="F10" t="n">
-        <v>61.70688273934481</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="G10" t="n">
-        <v>61.70688273934481</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="H10" t="n">
-        <v>61.70688273934481</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="I10" t="n">
-        <v>61.70688273934481</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="J10" t="n">
-        <v>43.36919653809314</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="K10" t="n">
-        <v>92.71685897981547</v>
+        <v>92.71685897981521</v>
       </c>
       <c r="L10" t="n">
-        <v>185.7706748018946</v>
+        <v>185.7706748018941</v>
       </c>
       <c r="M10" t="n">
-        <v>287.1411594927338</v>
+        <v>287.1411594927332</v>
       </c>
       <c r="N10" t="n">
-        <v>393.9588065377469</v>
+        <v>393.9588065377461</v>
       </c>
       <c r="O10" t="n">
-        <v>472.309103603367</v>
+        <v>472.3091036033659</v>
       </c>
       <c r="P10" t="n">
-        <v>520.2893470406003</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Q10" t="n">
-        <v>520.2893470406003</v>
+        <v>506.6265632319841</v>
       </c>
       <c r="R10" t="n">
-        <v>520.2893470406003</v>
+        <v>506.6265632319841</v>
       </c>
       <c r="S10" t="n">
-        <v>520.2893470406003</v>
+        <v>506.6265632319841</v>
       </c>
       <c r="T10" t="n">
-        <v>520.2893470406003</v>
+        <v>506.6265632319841</v>
       </c>
       <c r="U10" t="n">
-        <v>520.2893470406003</v>
+        <v>506.6265632319841</v>
       </c>
       <c r="V10" t="n">
-        <v>520.2893470406003</v>
+        <v>506.6265632319841</v>
       </c>
       <c r="W10" t="n">
-        <v>391.2684411519776</v>
+        <v>506.6265632319841</v>
       </c>
       <c r="X10" t="n">
-        <v>391.2684411519776</v>
+        <v>506.6265632319841</v>
       </c>
       <c r="Y10" t="n">
-        <v>391.2684411519776</v>
+        <v>506.6265632319841</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
         <v>1948.813509611464</v>
@@ -5029,64 +5029,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362679</v>
+        <v>379.8308874362688</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068013</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852259</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398597</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492582</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474787</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797194</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797194</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191928</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L12" t="n">
-        <v>923.067041434952</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061504</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="N12" t="n">
-        <v>1520.445529061504</v>
+        <v>1702.07903472198</v>
       </c>
       <c r="O12" t="n">
         <v>1896.176478190824</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>707.6725264685181</v>
+        <v>803.2707707770328</v>
       </c>
       <c r="C13" t="n">
-        <v>538.7363435406112</v>
+        <v>634.3345878491259</v>
       </c>
       <c r="D13" t="n">
-        <v>388.6197041282754</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458823</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797194</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797194</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038348</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797751</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853363</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832665</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832665</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855606</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1871.240688199804</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1616.556199993917</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1327.139029956956</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="X13" t="n">
-        <v>1099.149479058939</v>
+        <v>1205.711814750803</v>
       </c>
       <c r="Y13" t="n">
-        <v>878.3568999154087</v>
+        <v>984.9192356072725</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C14" t="n">
         <v>1948.813509611464</v>
@@ -5266,64 +5266,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362688</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075814</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068013</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852259</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398597</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492582</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474787</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466577</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123006</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852892</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591812</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="15">
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273915</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273915</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K15" t="n">
-        <v>95.58405025273915</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L15" t="n">
-        <v>590.9096564684982</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1188.28814409505</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1815.886107649658</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>866.4638174991043</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C16" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270452</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.15024091081</v>
@@ -5451,37 +5451,37 @@
         <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580262</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235166</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258107</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602305</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396418</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359457</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>983.34034846144</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y16" t="n">
-        <v>983.34034846144</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C17" t="n">
         <v>1948.813509611464</v>
@@ -5503,64 +5503,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075814</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068013</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852259</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398597</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492582</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474787</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466577</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123006</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W17" t="n">
         <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="18">
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797194</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797194</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191927</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>542.9134462654457</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1140.291933891998</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1767.889897446605</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O18" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>695.5020655703123</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C19" t="n">
-        <v>526.5658826424054</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D19" t="n">
-        <v>526.5658826424054</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E19" t="n">
-        <v>526.5658826424054</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487569</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.46108051051</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.28419561186</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138424</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703123</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="20">
@@ -5734,37 +5734,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362676</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5834,22 +5834,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>542.9134462654469</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1767.889897446606</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
         <v>484.8112968429803</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1977.461080510508</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1729.097755135313</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1729.097755135313</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>1501.108204237296</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5989,22 +5989,22 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6071,22 +6071,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>740.5562989961525</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>695.5020655703109</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C25" t="n">
-        <v>526.5658826424041</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D25" t="n">
-        <v>491.0125592675714</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E25" t="n">
-        <v>343.0994656851783</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2395.078540748843</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>2106.003314093041</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="26">
@@ -6217,10 +6217,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192616</v>
@@ -6235,7 +6235,7 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6299,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273902</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>542.9134462654469</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1016.58045691144</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C28" t="n">
-        <v>847.644273983533</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711973</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888042</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>103.0551911168399</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2379.917379832663</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>2090.842153176861</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1836.157664970974</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1546.740494934013</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>1419.02150088521</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>1198.22892174168</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
         <v>1948.813509611463</v>
@@ -6454,28 +6454,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6484,31 +6484,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6536,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273902</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>95.58405025273902</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>590.9096564684977</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1188.28814409505</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>781.3544215660705</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C31" t="n">
-        <v>612.4182386381636</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D31" t="n">
-        <v>612.4182386381636</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E31" t="n">
-        <v>464.5051450557705</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578601</v>
+        <v>114.9565346495158</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2392.733712452775</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2209.878878107679</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1990.277413130621</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1701.202186474818</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1701.202186474818</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1411.785016437858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>1183.79546553984</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>963.0028863963103</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6697,22 +6697,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6721,7 +6721,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6776,28 +6776,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>948.5505208511906</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6885,25 +6885,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2342.684238942884</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2123.082773965825</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2123.082773965825</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1868.398285759938</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1578.981115722978</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1350.99156482496</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1130.19898568143</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6925,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6952,34 +6952,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1016.58045691144</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C37" t="n">
-        <v>847.6442739835331</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D37" t="n">
-        <v>697.5276345711974</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888043</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>2160.315914855604</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U37" t="n">
-        <v>2160.315914855604</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V37" t="n">
-        <v>1936.428221820188</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W37" t="n">
-        <v>1647.011051783227</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X37" t="n">
-        <v>1419.02150088521</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y37" t="n">
-        <v>1198.22892174168</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7162,31 +7162,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
@@ -7207,16 +7207,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>542.9134462654469</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1140.291933891999</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1767.889897446606</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>699.73118040114</v>
+        <v>513.8536007400697</v>
       </c>
       <c r="C40" t="n">
-        <v>699.73118040114</v>
+        <v>344.9174178121627</v>
       </c>
       <c r="D40" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121627</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888043</v>
+        <v>261.012762333092</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7350,34 +7350,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q40" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T40" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U40" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V40" t="n">
-        <v>1619.578945309888</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W40" t="n">
-        <v>1330.161775272927</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X40" t="n">
-        <v>1102.17222437491</v>
+        <v>916.2946447138398</v>
       </c>
       <c r="Y40" t="n">
-        <v>881.3796452313798</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="41">
@@ -7390,7 +7390,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7399,7 +7399,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7408,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7444,7 +7444,7 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
         <v>3820.749612123003</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>869.6905094135296</v>
+        <v>580.8993044876673</v>
       </c>
       <c r="C43" t="n">
-        <v>700.7543264856228</v>
+        <v>411.9631215597603</v>
       </c>
       <c r="D43" t="n">
-        <v>550.637687073287</v>
+        <v>407.9027098310025</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310025</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7569,13 +7569,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7587,7 +7587,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q43" t="n">
         <v>2446.96308358026</v>
@@ -7596,25 +7596,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T43" t="n">
-        <v>2078.61350097808</v>
+        <v>2044.506784258105</v>
       </c>
       <c r="U43" t="n">
-        <v>1789.538274322277</v>
+        <v>1755.431557602303</v>
       </c>
       <c r="V43" t="n">
-        <v>1789.538274322277</v>
+        <v>1500.747069396416</v>
       </c>
       <c r="W43" t="n">
-        <v>1500.121104285317</v>
+        <v>1211.329899359455</v>
       </c>
       <c r="X43" t="n">
-        <v>1272.131553387299</v>
+        <v>983.3403484614374</v>
       </c>
       <c r="Y43" t="n">
-        <v>1051.338974243769</v>
+        <v>762.5477693179072</v>
       </c>
     </row>
     <row r="44">
@@ -7630,67 +7630,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7721,31 +7721,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273898</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803936</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516141</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1671.859558793924</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,37 +7782,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>866.4638174991042</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C46" t="n">
-        <v>697.5276345711973</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D46" t="n">
-        <v>697.5276345711973</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888042</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797183</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7833,25 +7833,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>2106.003314093041</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X46" t="n">
-        <v>1211.329899359456</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y46" t="n">
-        <v>1048.112282329344</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
   </sheetData>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>10.8544504695156</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>65.75554125013184</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856549</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>64.12421452922489</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23661,16 +23661,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.22910392194133</v>
       </c>
       <c r="I16" t="n">
         <v>81.2658363185655</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012163</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23901,10 +23901,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>104.0840080815003</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>72.11969353038563</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24129,16 +24129,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>72.11969353038617</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,13 +24183,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>6.257951202385186</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>113.417682877128</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>166.0397529241849</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24606,13 +24606,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>99.26785128072164</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>144.5956654067404</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>12.68816929391095</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25083,19 +25083,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,13 +25125,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>144.1654765207634</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V37" t="n">
-        <v>30.48882721876564</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>63.3683537222893</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856565</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>2.992517862812974</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>144.5956654067423</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856565</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101218</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>33.76564955277399</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>166.0397529241853</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>56.99921249228368</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>640177.2699200504</v>
+        <v>640177.2699200503</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>640177.2699200504</v>
+        <v>640177.2699200503</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>640177.2699200503</v>
+        <v>640177.2699200504</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>640177.2699200503</v>
+        <v>640177.2699200502</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>800515.725617676</v>
+      </c>
+      <c r="C2" t="n">
         <v>800515.7256176763</v>
       </c>
-      <c r="C2" t="n">
-        <v>800515.7256176762</v>
-      </c>
       <c r="D2" t="n">
-        <v>800515.7256176759</v>
+        <v>800515.7256176764</v>
       </c>
       <c r="E2" t="n">
-        <v>786967.9346977562</v>
+        <v>786967.934697756</v>
       </c>
       <c r="F2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.9346977556</v>
       </c>
       <c r="G2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.9346977556</v>
       </c>
       <c r="H2" t="n">
         <v>786967.934697756</v>
       </c>
       <c r="I2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.934697756</v>
       </c>
       <c r="J2" t="n">
+        <v>786967.9346977558</v>
+      </c>
+      <c r="K2" t="n">
         <v>786967.934697756</v>
       </c>
-      <c r="K2" t="n">
-        <v>786967.9346977558</v>
-      </c>
       <c r="L2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.934697756</v>
       </c>
       <c r="M2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.9346977562</v>
       </c>
       <c r="N2" t="n">
         <v>786967.9346977558</v>
       </c>
       <c r="O2" t="n">
-        <v>786967.9346977561</v>
+        <v>786967.9346977557</v>
       </c>
       <c r="P2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.9346977558</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208458</v>
+        <v>591356.9025208459</v>
       </c>
       <c r="C3" t="n">
-        <v>270592.3620253089</v>
+        <v>270592.3620253104</v>
       </c>
       <c r="D3" t="n">
-        <v>115410.0540231969</v>
+        <v>115410.0540231943</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.2075742652</v>
+        <v>601443.2075742655</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>6.983620031470698e-11</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854465</v>
+        <v>49064.94472854471</v>
       </c>
       <c r="K3" t="n">
-        <v>62913.63765881892</v>
+        <v>62913.63765881924</v>
       </c>
       <c r="L3" t="n">
-        <v>27875.25362197586</v>
+        <v>27875.2536219752</v>
       </c>
       <c r="M3" t="n">
-        <v>157146.380551598</v>
+        <v>157146.3805515982</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,19 +26420,19 @@
         <v>278536.5648341298</v>
       </c>
       <c r="C4" t="n">
-        <v>206604.4229263471</v>
+        <v>206604.4229263466</v>
       </c>
       <c r="D4" t="n">
-        <v>174202.9900888974</v>
+        <v>174202.9900888977</v>
       </c>
       <c r="E4" t="n">
-        <v>15436.6400068796</v>
+        <v>15436.64000687961</v>
       </c>
       <c r="F4" t="n">
-        <v>15436.64000687952</v>
+        <v>15436.64000687963</v>
       </c>
       <c r="G4" t="n">
-        <v>15436.64000687952</v>
+        <v>15436.64000687968</v>
       </c>
       <c r="H4" t="n">
         <v>15436.64000687967</v>
@@ -26441,25 +26441,25 @@
         <v>15436.64000687967</v>
       </c>
       <c r="J4" t="n">
-        <v>15436.64000687973</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="K4" t="n">
-        <v>15436.64000687973</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="L4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="M4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687963</v>
       </c>
       <c r="N4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="O4" t="n">
+        <v>15436.64000687962</v>
+      </c>
+      <c r="P4" t="n">
         <v>15436.64000687967</v>
-      </c>
-      <c r="P4" t="n">
-        <v>15436.64000687976</v>
       </c>
     </row>
     <row r="5">
@@ -26469,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161359</v>
+        <v>56985.8004116136</v>
       </c>
       <c r="C5" t="n">
-        <v>76435.73471936796</v>
+        <v>76435.73471936808</v>
       </c>
       <c r="D5" t="n">
-        <v>85199.08185587233</v>
+        <v>85199.08185587224</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="H5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-126363.5421489128</v>
+        <v>-126363.5421489132</v>
       </c>
       <c r="C6" t="n">
-        <v>246883.2059466522</v>
+        <v>246883.2059466512</v>
       </c>
       <c r="D6" t="n">
-        <v>425703.5996497094</v>
+        <v>425703.5996497122</v>
       </c>
       <c r="E6" t="n">
-        <v>68965.55729270422</v>
+        <v>68618.17803834674</v>
       </c>
       <c r="F6" t="n">
-        <v>670408.7648669692</v>
+        <v>670061.3856126119</v>
       </c>
       <c r="G6" t="n">
-        <v>670408.7648669691</v>
+        <v>670061.3856126119</v>
       </c>
       <c r="H6" t="n">
-        <v>670408.7648669699</v>
+        <v>670061.3856126124</v>
       </c>
       <c r="I6" t="n">
-        <v>670408.764866969</v>
+        <v>670061.3856126121</v>
       </c>
       <c r="J6" t="n">
-        <v>621343.8201384245</v>
+        <v>620996.4408840674</v>
       </c>
       <c r="K6" t="n">
-        <v>607495.1272081502</v>
+        <v>607147.747953793</v>
       </c>
       <c r="L6" t="n">
-        <v>642533.5112449932</v>
+        <v>642186.131990637</v>
       </c>
       <c r="M6" t="n">
-        <v>513262.384315371</v>
+        <v>512915.0050610144</v>
       </c>
       <c r="N6" t="n">
-        <v>670408.7648669691</v>
+        <v>670061.3856126121</v>
       </c>
       <c r="O6" t="n">
-        <v>670408.7648669693</v>
+        <v>670061.3856126121</v>
       </c>
       <c r="P6" t="n">
-        <v>670408.7648669692</v>
+        <v>670061.3856126121</v>
       </c>
     </row>
   </sheetData>
@@ -26709,13 +26709,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>9.744586090424231e-14</v>
+        <v>8.729525039338373e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>9.744586090424231e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>9.744586090424231e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26737,16 +26737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129049</v>
+        <v>548.469940912905</v>
       </c>
       <c r="C3" t="n">
-        <v>758.8996292950592</v>
+        <v>758.8996292950604</v>
       </c>
       <c r="D3" t="n">
-        <v>853.7106645376849</v>
+        <v>853.7106645376841</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341675</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663202</v>
+        <v>187.5255871663203</v>
       </c>
       <c r="C4" t="n">
-        <v>431.9757039594682</v>
+        <v>431.9757039594698</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261642</v>
+        <v>542.1149567261632</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26804,7 +26804,7 @@
         <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26822,10 +26822,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-8.729525039338373e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26925,22 +26925,22 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>9.744586090424231e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>8.729525039338373e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-8.729525039338373e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>-3.218023548783847e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129049</v>
+        <v>548.469940912905</v>
       </c>
       <c r="C3" t="n">
-        <v>210.4296883821543</v>
+        <v>210.4296883821554</v>
       </c>
       <c r="D3" t="n">
-        <v>94.81103524262574</v>
+        <v>94.81103524262369</v>
       </c>
       <c r="E3" t="n">
-        <v>514.2648358039897</v>
+        <v>514.2648358039901</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663202</v>
+        <v>187.5255871663203</v>
       </c>
       <c r="C4" t="n">
-        <v>244.450116793148</v>
+        <v>244.4501167931495</v>
       </c>
       <c r="D4" t="n">
-        <v>110.139252766696</v>
+        <v>110.1392527666934</v>
       </c>
       <c r="E4" t="n">
-        <v>630.5933313734851</v>
+        <v>630.5933313734856</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663203</v>
       </c>
       <c r="K4" t="n">
-        <v>244.450116793148</v>
+        <v>244.4501167931495</v>
       </c>
       <c r="L4" t="n">
-        <v>110.139252766696</v>
+        <v>110.1392527666934</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734851</v>
+        <v>630.5933313734859</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27053,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>-1.880076692462268e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27162,10 +27162,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>9.744586090424231e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>8.729525039338373e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663202</v>
+        <v>187.5255871663203</v>
       </c>
       <c r="K4" t="n">
-        <v>244.450116793148</v>
+        <v>244.4501167931495</v>
       </c>
       <c r="L4" t="n">
-        <v>110.139252766696</v>
+        <v>110.1392527666934</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734851</v>
+        <v>630.5933313734856</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,19 +27381,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>213.1981878249708</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>167.1574544543627</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>219.3504585753912</v>
+        <v>219.3504585753911</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>225.5722460637377</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
@@ -27426,19 +27426,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.0817190166637</v>
+        <v>77.08171901666367</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>213.4438810562068</v>
+        <v>25.91829388988648</v>
       </c>
       <c r="U2" t="n">
         <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>321.3555344840931</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>198.7123514897334</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27457,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>1.360646473772391</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27466,10 +27466,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.1637893657753</v>
@@ -27478,10 +27478,10 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>58.90455890409146</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265832</v>
+        <v>15.37922103265831</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27505,10 +27505,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>43.59828056355393</v>
+        <v>72.43289562846313</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
         <v>195.4095977920012</v>
@@ -27520,13 +27520,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>64.1693959945994</v>
+        <v>64.16939599459931</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>18.24739803715718</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>18.15710861098407</v>
       </c>
     </row>
     <row r="4">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>127.6160339275024</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27560,10 +27560,10 @@
         <v>125.7072197708666</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825412</v>
+        <v>57.06999962825411</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402845</v>
+        <v>14.10430989402843</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,13 +27578,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709379</v>
+        <v>18.10760906709376</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.6860405515972</v>
+        <v>68.68604055159719</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>132.8223696106903</v>
       </c>
       <c r="S4" t="n">
         <v>206.7802557954962</v>
@@ -27596,7 +27596,7 @@
         <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
-        <v>199.9216970693932</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27618,10 +27618,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27630,13 +27630,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>118.5404483314773</v>
       </c>
       <c r="H5" t="n">
-        <v>308.2302560714736</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>92.85788772760078</v>
+        <v>92.85788772760058</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,25 +27663,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>23.94240680425969</v>
+        <v>23.94240680425938</v>
       </c>
       <c r="S5" t="n">
-        <v>139.4987618372557</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>209.7407415149289</v>
+        <v>209.7407415149288</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>83.50523730536582</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27697,13 +27697,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>15.1946525401631</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -27712,10 +27712,10 @@
         <v>135.7111670171797</v>
       </c>
       <c r="H6" t="n">
-        <v>96.47037835246137</v>
+        <v>96.47037835246134</v>
       </c>
       <c r="I6" t="n">
-        <v>43.32085084937533</v>
+        <v>43.32085084937523</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,16 +27742,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>44.33060630074827</v>
+        <v>44.3306063007481</v>
       </c>
       <c r="S6" t="n">
         <v>141.3629830843607</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.5852120974427</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>141.7630049956702</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27773,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>134.1679803369026</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>130.3878734270586</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27791,13 +27791,13 @@
         <v>166.6224718302218</v>
       </c>
       <c r="H7" t="n">
-        <v>150.0598964836598</v>
+        <v>150.0598964836597</v>
       </c>
       <c r="I7" t="n">
-        <v>114.2957212599131</v>
+        <v>114.295721259913</v>
       </c>
       <c r="J7" t="n">
-        <v>30.24193919304079</v>
+        <v>30.24193919304064</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>36.91115760589192</v>
+        <v>36.91115760589172</v>
       </c>
       <c r="R7" t="n">
-        <v>115.7603165166226</v>
+        <v>115.7603165166225</v>
       </c>
       <c r="S7" t="n">
         <v>200.1672441130603</v>
@@ -27830,7 +27830,7 @@
         <v>222.0983299894507</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2443834913144</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27861,10 +27861,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>329.1132160331044</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>6.326196524558256</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27934,25 +27934,25 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470352</v>
+        <v>115.230253902329</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>36.29946757904885</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,16 +27979,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721421</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
-        <v>130.6458318473058</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28000,7 +28000,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.4515011109318</v>
@@ -28055,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.59469128425542</v>
+        <v>9.068535313726665</v>
       </c>
       <c r="R10" t="n">
-        <v>108.0728512656385</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S10" t="n">
-        <v>197.1876907596158</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T10" t="n">
         <v>221.3678187343026</v>
@@ -28073,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>158.7923015068546</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-9.744586090424231e-14</v>
+        <v>-8.729525039338373e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>-9.744586090424231e-14</v>
+        <v>-8.729525039338373e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>-9.744586090424231e-14</v>
+        <v>-8.729525039338373e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>-9.744586090424231e-14</v>
+        <v>-8.729525039338373e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>-9.744586090424231e-14</v>
+        <v>-8.729525039338373e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>-9.744586090424231e-14</v>
+        <v>-8.729525039338373e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>-9.744586090424231e-14</v>
+        <v>-8.729525039338373e-14</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-9.744586090424231e-14</v>
+        <v>-8.729525039338373e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>-9.744586090424231e-14</v>
+        <v>-8.729525039338373e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>-9.744586090424231e-14</v>
+        <v>-8.729525039338373e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>-9.744586090424231e-14</v>
+        <v>-8.729525039338373e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>-9.744586090424231e-14</v>
+        <v>-8.729525039338373e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>-9.744586090424231e-14</v>
+        <v>-8.729525039338373e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>-9.744586090424231e-14</v>
+        <v>-8.729525039338373e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28326,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-9.744586090424231e-14</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>-8.729525039338373e-14</v>
       </c>
       <c r="D14" t="n">
-        <v>-9.744586090424231e-14</v>
+        <v>-8.729525039338373e-14</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>-8.729525039338373e-14</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>-8.729525039338373e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-8.729525039338373e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>-8.729525039338373e-14</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28380,22 +28380,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-8.729525039338373e-14</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>-8.729525039338373e-14</v>
       </c>
       <c r="V14" t="n">
-        <v>-9.744586090424231e-14</v>
+        <v>-8.729525039338373e-14</v>
       </c>
       <c r="W14" t="n">
-        <v>-9.744586090424231e-14</v>
+        <v>-8.729525039338373e-14</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>-2.728484105318785e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28563,25 +28563,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>-8.729525039338373e-14</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>-8.729525039338373e-14</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>-8.729525039338373e-14</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>-8.729525039338373e-14</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-8.729525039338373e-14</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>-8.729525039338373e-14</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28617,22 +28617,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-9.744586090424231e-14</v>
+        <v>-8.729525039338373e-14</v>
       </c>
       <c r="U17" t="n">
-        <v>-9.744586090424231e-14</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V17" t="n">
-        <v>-9.744586090424231e-14</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>-2.842170943040401e-12</v>
+        <v>-8.729525039338373e-14</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>-8.729525039338373e-14</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>-8.729525039338373e-14</v>
       </c>
     </row>
     <row r="18">
@@ -28809,7 +28809,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>-5.160738706884473e-14</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -28818,7 +28818,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>9.663381206337363e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28854,22 +28854,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>-8.729525039338373e-14</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>-8.729525039338373e-14</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>-8.729525039338373e-14</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>-8.729525039338373e-14</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>-8.729525039338373e-14</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>-8.729525039338373e-14</v>
       </c>
     </row>
     <row r="21">
@@ -29274,25 +29274,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>9.744586090424231e-14</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>9.744586090424231e-14</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>9.744586090424231e-14</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>9.744586090424231e-14</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>9.744586090424231e-14</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>9.744586090424231e-14</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>9.744586090424231e-14</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29325,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>9.744586090424231e-14</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>9.744586090424231e-14</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>9.744586090424231e-14</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>9.744586090424231e-14</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>9.744586090424231e-14</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>9.744586090424231e-14</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>9.744586090424231e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -29514,7 +29514,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -29814,7 +29814,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>9.744586090424231e-14</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -30240,7 +30240,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>-1.194754858812222e-13</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30279,7 +30279,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>-1.194754858812222e-13</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>-1.194754858812222e-13</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>-1.194754858812222e-13</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>-1.194754858812222e-13</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>-1.194754858812222e-13</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>-1.194754858812222e-13</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>-1.194754858812222e-13</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>-1.194754858812222e-13</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>-1.194754858812222e-13</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>-1.194754858812222e-13</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>-1.194754858812222e-13</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>-1.194754858812222e-13</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>-1.194754858812222e-13</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>-1.194754858812222e-13</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>-1.194754858812222e-13</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>-1.194754858812222e-13</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>-1.194754858812222e-13</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>-1.194754858812222e-13</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>-1.194754858812222e-13</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>-1.194754858812222e-13</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>-1.194754858812222e-13</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>-1.194754858812222e-13</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>-1.194754858812222e-13</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>-1.194754858812222e-13</v>
       </c>
     </row>
     <row r="41">
@@ -30462,7 +30462,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>-1.194754858812222e-13</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>-1.194754858812222e-13</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>-1.194754858812222e-13</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>-1.194754858812222e-13</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>-1.194754858812222e-13</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>-1.194754858812222e-13</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>-1.194754858812222e-13</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>-1.194754858812222e-13</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>-1.194754858812222e-13</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>-1.194754858812222e-13</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>-1.194754858812222e-13</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>-1.194754858812222e-13</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>-1.194754858812222e-13</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>-1.194754858812222e-13</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>-1.194754858812222e-13</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>-1.194754858812222e-13</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>-1.194754858812222e-13</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>-1.194754858812222e-13</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>-1.194754858812222e-13</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>-1.194754858812222e-13</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>-1.194754858812222e-13</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>-1.194754858812222e-13</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>-1.194754858812222e-13</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>-1.194754858812222e-13</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>-1.194754858812222e-13</v>
       </c>
     </row>
     <row r="44">
@@ -30759,7 +30759,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>2.103206497849897e-12</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -31044,43 +31044,43 @@
         <v>2.204904285077003</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954486</v>
+        <v>22.58097600954487</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043124</v>
+        <v>85.00457245043125</v>
       </c>
       <c r="J2" t="n">
         <v>187.1384950655545</v>
       </c>
       <c r="K2" t="n">
-        <v>280.472093452864</v>
+        <v>280.4720934528641</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672894</v>
+        <v>347.9504329672895</v>
       </c>
       <c r="M2" t="n">
         <v>387.1618995470276</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470026</v>
+        <v>393.4265838470027</v>
       </c>
       <c r="O2" t="n">
         <v>371.5015668622682</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244296</v>
+        <v>317.0679923244297</v>
       </c>
       <c r="Q2" t="n">
         <v>238.1048576151094</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974684</v>
+        <v>138.5038187974685</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619226</v>
+        <v>50.24425639619227</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924586</v>
+        <v>9.651968507924588</v>
       </c>
       <c r="U2" t="n">
         <v>0.1763923428061602</v>
@@ -31126,7 +31126,7 @@
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590853</v>
+        <v>40.61782109590854</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340084</v>
@@ -31135,7 +31135,7 @@
         <v>190.5001680621738</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405034</v>
+        <v>256.1509851405035</v>
       </c>
       <c r="M3" t="n">
         <v>298.9161177975332</v>
@@ -31144,25 +31144,25 @@
         <v>306.8275379829656</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292675</v>
+        <v>280.6872536292676</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628873</v>
+        <v>225.2762668628874</v>
       </c>
       <c r="Q3" t="n">
         <v>150.5912184936716</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550081</v>
+        <v>73.24660833550082</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288821</v>
+        <v>21.91292641288822</v>
       </c>
       <c r="T3" t="n">
         <v>4.755130902820373</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390167</v>
+        <v>0.07761367088390168</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,37 +31199,37 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445825</v>
+        <v>0.9890441557445827</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620021</v>
+        <v>8.793501675620023</v>
       </c>
       <c r="I4" t="n">
         <v>29.74325515639164</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114199</v>
+        <v>69.925421811142</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276991</v>
+        <v>147.0438920276992</v>
       </c>
       <c r="M4" t="n">
         <v>155.0371670682167</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604415</v>
+        <v>151.3507297604416</v>
       </c>
       <c r="O4" t="n">
         <v>139.7968957592434</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820538</v>
+        <v>119.6203949820539</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784864</v>
+        <v>82.81896107784866</v>
       </c>
       <c r="R4" t="n">
         <v>44.47102176647913</v>
@@ -31238,7 +31238,7 @@
         <v>17.23634224147604</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181397</v>
+        <v>4.225915938181398</v>
       </c>
       <c r="U4" t="n">
         <v>0.05394786304061366</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.050852781085663</v>
+        <v>3.050852781085668</v>
       </c>
       <c r="H5" t="n">
-        <v>31.24454604429355</v>
+        <v>31.2445460442936</v>
       </c>
       <c r="I5" t="n">
-        <v>117.6180018428051</v>
+        <v>117.6180018428053</v>
       </c>
       <c r="J5" t="n">
-        <v>258.9373162286695</v>
+        <v>258.9373162286699</v>
       </c>
       <c r="K5" t="n">
-        <v>388.0799144520257</v>
+        <v>388.0799144520263</v>
       </c>
       <c r="L5" t="n">
-        <v>481.4474502511761</v>
+        <v>481.4474502511769</v>
       </c>
       <c r="M5" t="n">
-        <v>535.7030533968083</v>
+        <v>535.7030533968092</v>
       </c>
       <c r="N5" t="n">
-        <v>544.3712888610679</v>
+        <v>544.3712888610688</v>
       </c>
       <c r="O5" t="n">
-        <v>514.0343715191474</v>
+        <v>514.0343715191482</v>
       </c>
       <c r="P5" t="n">
-        <v>438.716443486095</v>
+        <v>438.7164434860957</v>
       </c>
       <c r="Q5" t="n">
-        <v>329.4577782634646</v>
+        <v>329.4577782634651</v>
       </c>
       <c r="R5" t="n">
-        <v>191.6431310098724</v>
+        <v>191.6431310098727</v>
       </c>
       <c r="S5" t="n">
-        <v>69.52130774898961</v>
+        <v>69.52130774898973</v>
       </c>
       <c r="T5" t="n">
-        <v>13.3551080492025</v>
+        <v>13.35510804920252</v>
       </c>
       <c r="U5" t="n">
-        <v>0.244068222486853</v>
+        <v>0.2440682224868534</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.632350146030882</v>
+        <v>1.632350146030885</v>
       </c>
       <c r="H6" t="n">
-        <v>15.7650658840351</v>
+        <v>15.76506588403513</v>
       </c>
       <c r="I6" t="n">
-        <v>56.20152915062467</v>
+        <v>56.20152915062476</v>
       </c>
       <c r="J6" t="n">
-        <v>154.2212916475931</v>
+        <v>154.2212916475934</v>
       </c>
       <c r="K6" t="n">
-        <v>263.5887514316622</v>
+        <v>263.5887514316627</v>
       </c>
       <c r="L6" t="n">
-        <v>354.4276051721878</v>
+        <v>354.4276051721884</v>
       </c>
       <c r="M6" t="n">
-        <v>413.6002979658072</v>
+        <v>413.6002979658079</v>
       </c>
       <c r="N6" t="n">
-        <v>424.5470671468652</v>
+        <v>424.547067146866</v>
       </c>
       <c r="O6" t="n">
-        <v>388.3776244374441</v>
+        <v>388.3776244374448</v>
       </c>
       <c r="P6" t="n">
-        <v>311.707283587248</v>
+        <v>311.7072835872485</v>
       </c>
       <c r="Q6" t="n">
-        <v>208.3680642547491</v>
+        <v>208.3680642547494</v>
       </c>
       <c r="R6" t="n">
-        <v>101.3488976632157</v>
+        <v>101.3488976632159</v>
       </c>
       <c r="S6" t="n">
-        <v>30.32018801947711</v>
+        <v>30.32018801947716</v>
       </c>
       <c r="T6" t="n">
-        <v>6.57951659737886</v>
+        <v>6.579516597378871</v>
       </c>
       <c r="U6" t="n">
-        <v>0.107391456975716</v>
+        <v>0.1073914569757161</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.368507528236992</v>
+        <v>1.368507528236994</v>
       </c>
       <c r="H7" t="n">
-        <v>12.16727602377981</v>
+        <v>12.16727602377983</v>
       </c>
       <c r="I7" t="n">
-        <v>41.15475366734518</v>
+        <v>41.15475366734525</v>
       </c>
       <c r="J7" t="n">
-        <v>96.75348224635532</v>
+        <v>96.75348224635547</v>
       </c>
       <c r="K7" t="n">
-        <v>158.9956928260796</v>
+        <v>158.9956928260798</v>
       </c>
       <c r="L7" t="n">
-        <v>203.4597465162524</v>
+        <v>203.4597465162528</v>
       </c>
       <c r="M7" t="n">
-        <v>214.5197755399132</v>
+        <v>214.5197755399135</v>
       </c>
       <c r="N7" t="n">
-        <v>209.4189747528482</v>
+        <v>209.4189747528485</v>
       </c>
       <c r="O7" t="n">
-        <v>193.4323186275342</v>
+        <v>193.4323186275345</v>
       </c>
       <c r="P7" t="n">
-        <v>165.5147650514994</v>
+        <v>165.5147650514997</v>
       </c>
       <c r="Q7" t="n">
-        <v>114.5938440235539</v>
+        <v>114.5938440235541</v>
       </c>
       <c r="R7" t="n">
-        <v>61.53307486054691</v>
+        <v>61.53307486054701</v>
       </c>
       <c r="S7" t="n">
-        <v>23.84935392391193</v>
+        <v>23.84935392391197</v>
       </c>
       <c r="T7" t="n">
-        <v>5.847259438830782</v>
+        <v>5.847259438830791</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07464586517656328</v>
+        <v>0.07464586517656339</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.432002671508279</v>
+        <v>3.432002671508275</v>
       </c>
       <c r="H8" t="n">
-        <v>35.14799735958417</v>
+        <v>35.14799735958413</v>
       </c>
       <c r="I8" t="n">
-        <v>132.312282993323</v>
+        <v>132.3122829933229</v>
       </c>
       <c r="J8" t="n">
-        <v>291.286936740926</v>
+        <v>291.2869367409257</v>
       </c>
       <c r="K8" t="n">
-        <v>436.5636098258715</v>
+        <v>436.5636098258711</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840431</v>
+        <v>541.5957615840426</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934784</v>
+        <v>602.6296390934779</v>
       </c>
       <c r="N8" t="n">
-        <v>612.3808166839013</v>
+        <v>612.3808166839008</v>
       </c>
       <c r="O8" t="n">
-        <v>578.2538401190909</v>
+        <v>578.2538401190903</v>
       </c>
       <c r="P8" t="n">
-        <v>493.5262741662302</v>
+        <v>493.5262741662298</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.6176784928398</v>
+        <v>370.6176784928395</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141321</v>
+        <v>215.5855378141319</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699498</v>
+        <v>78.20676087699491</v>
       </c>
       <c r="T8" t="n">
-        <v>15.0235916945275</v>
+        <v>15.02359169452748</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2745602137206622</v>
+        <v>0.274560213720662</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.836283316175398</v>
+        <v>1.836283316175396</v>
       </c>
       <c r="H9" t="n">
-        <v>17.73463097464134</v>
+        <v>17.73463097464133</v>
       </c>
       <c r="I9" t="n">
-        <v>63.2229124209512</v>
+        <v>63.22291242095115</v>
       </c>
       <c r="J9" t="n">
-        <v>173.4885040076064</v>
+        <v>173.4885040076062</v>
       </c>
       <c r="K9" t="n">
-        <v>296.519486191358</v>
+        <v>296.5194861913577</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616801</v>
+        <v>398.7070419616798</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730382</v>
+        <v>465.2723121730378</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152847</v>
+        <v>477.5866858152843</v>
       </c>
       <c r="O9" t="n">
-        <v>436.8985133884509</v>
+        <v>436.8985133884505</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475635</v>
+        <v>350.6495746475632</v>
       </c>
       <c r="Q9" t="n">
-        <v>234.3999545349508</v>
+        <v>234.3999545349506</v>
       </c>
       <c r="R9" t="n">
-        <v>114.0106430867497</v>
+        <v>114.0106430867496</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053861</v>
+        <v>34.10815721053859</v>
       </c>
       <c r="T9" t="n">
-        <v>7.40151038405785</v>
+        <v>7.401510384057843</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1208081129062762</v>
+        <v>0.1208081129062761</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.539478247526973</v>
+        <v>1.539478247526971</v>
       </c>
       <c r="H10" t="n">
-        <v>13.68736114619437</v>
+        <v>13.68736114619435</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017479</v>
+        <v>46.29630948017475</v>
       </c>
       <c r="J10" t="n">
-        <v>108.841112100157</v>
+        <v>108.8411121001569</v>
       </c>
       <c r="K10" t="n">
-        <v>178.8593818490428</v>
+        <v>178.8593818490426</v>
       </c>
       <c r="L10" t="n">
-        <v>228.8784296368738</v>
+        <v>228.8784296368736</v>
       </c>
       <c r="M10" t="n">
-        <v>241.3202129282508</v>
+        <v>241.3202129282506</v>
       </c>
       <c r="N10" t="n">
-        <v>235.5821576420141</v>
+        <v>235.5821576420139</v>
       </c>
       <c r="O10" t="n">
-        <v>217.5982526595398</v>
+        <v>217.5982526595396</v>
       </c>
       <c r="P10" t="n">
-        <v>186.1928964099894</v>
+        <v>186.1928964099892</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.9103103451904</v>
+        <v>128.9103103451903</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153095</v>
+        <v>69.22054011153089</v>
       </c>
       <c r="S10" t="n">
-        <v>26.82890727735641</v>
+        <v>26.82890727735639</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978882</v>
+        <v>6.577770693978875</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08397154077419861</v>
+        <v>0.08397154077419852</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348437</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135344</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
         <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.544175081758</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162566</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175681</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159432</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460034</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236513</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669226</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043728</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.0736191065153</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659451</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521102</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422589</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473077</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862126</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>522.1224556861818</v>
+        <v>338.6542681503472</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214701</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485293</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742442</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937735</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275956</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189905</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121572</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869279</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796263</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.602080235518</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588156</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392048</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.676771792006</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515929</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532769</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467223</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,34 +31989,34 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
         <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162565</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
         <v>593.8732233669225</v>
@@ -32028,10 +32028,10 @@
         <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,43 +32068,43 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659451</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521102</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.307619600775</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473075</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862125</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071789</v>
+        <v>465.7451325200299</v>
       </c>
       <c r="O15" t="n">
-        <v>223.6976288294612</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214701</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485292</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742441</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32162,31 +32162,31 @@
         <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
         <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
         <v>0.1345549672467222</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162565</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,43 +32305,43 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659451</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521102</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422588</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>254.8897444730591</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862125</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071789</v>
+        <v>426.9501404413636</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437246</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485292</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796262</v>
@@ -32399,31 +32399,31 @@
         <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
         <v>0.1345549672467222</v>
@@ -32554,16 +32554,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>439.2440297647763</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32572,7 +32572,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32791,25 +32791,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>741.1502463817021</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33025,13 +33025,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>253.1045048722855</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33040,13 +33040,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33262,10 +33262,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33274,19 +33274,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>251.886104915025</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>154.5219885631796</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33496,13 +33496,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33514,13 +33514,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>653.3850396373771</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33672,7 +33672,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460039</v>
       </c>
       <c r="P35" t="n">
         <v>790.8204499236507</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33742,22 +33742,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>282.8216163968503</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33973,13 +33973,13 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>592.1874941409601</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33988,13 +33988,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34225,16 +34225,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>354.9153144485699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34359,37 +34359,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34398,10 +34398,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34447,37 +34447,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>369.1789913100002</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34523,28 +34523,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34553,7 +34553,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868166</v>
+        <v>6.092590538868222</v>
       </c>
       <c r="K2" t="n">
-        <v>60.3822424078835</v>
+        <v>60.38224240788355</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973022</v>
+        <v>112.1840179973023</v>
       </c>
       <c r="M2" t="n">
         <v>156.8156663197549</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504117</v>
+        <v>164.0135202504118</v>
       </c>
       <c r="O2" t="n">
         <v>141.4033554405815</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656916007</v>
+        <v>85.83499656916013</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.7991677406599</v>
+        <v>15.79916774065995</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,13 +34780,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781481</v>
+        <v>52.65872908781483</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606292</v>
+        <v>117.5966053606293</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755148</v>
+        <v>156.7820838755149</v>
       </c>
       <c r="N3" t="n">
         <v>175.4858258996323</v>
@@ -34795,10 +34795,10 @@
         <v>138.0910091848231</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855708</v>
+        <v>91.30185944855714</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440765005</v>
+        <v>10.60944440765007</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646086</v>
+        <v>12.15921574646089</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061163</v>
+        <v>16.11138312061166</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520835</v>
+        <v>23.66518529520837</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400609</v>
+        <v>1.340357307400637</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>77.8914117019832</v>
+        <v>77.89141170198366</v>
       </c>
       <c r="K5" t="n">
-        <v>167.9900634070451</v>
+        <v>167.9900634070458</v>
       </c>
       <c r="L5" t="n">
-        <v>245.6810352811889</v>
+        <v>245.6810352811897</v>
       </c>
       <c r="M5" t="n">
-        <v>305.3568201695356</v>
+        <v>305.3568201695365</v>
       </c>
       <c r="N5" t="n">
-        <v>314.958225264477</v>
+        <v>314.9582252644779</v>
       </c>
       <c r="O5" t="n">
-        <v>283.9361600974606</v>
+        <v>283.9361600974614</v>
       </c>
       <c r="P5" t="n">
-        <v>207.4834477308254</v>
+        <v>207.4834477308262</v>
       </c>
       <c r="Q5" t="n">
-        <v>107.1520883890151</v>
+        <v>107.1520883890156</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>27.38366498092645</v>
+        <v>27.38366498092671</v>
       </c>
       <c r="K6" t="n">
-        <v>125.7473124573032</v>
+        <v>125.7473124573037</v>
       </c>
       <c r="L6" t="n">
-        <v>215.8732253923137</v>
+        <v>215.8732253923142</v>
       </c>
       <c r="M6" t="n">
-        <v>271.4662640437889</v>
+        <v>271.4662640437896</v>
       </c>
       <c r="N6" t="n">
-        <v>293.2053550635319</v>
+        <v>293.2053550635327</v>
       </c>
       <c r="O6" t="n">
-        <v>245.7813799929997</v>
+        <v>245.7813799930003</v>
       </c>
       <c r="P6" t="n">
-        <v>177.7328761729178</v>
+        <v>177.7328761729183</v>
       </c>
       <c r="Q6" t="n">
-        <v>68.38629016872758</v>
+        <v>68.38629016872792</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>29.98243465554418</v>
+        <v>29.98243465554444</v>
       </c>
       <c r="L7" t="n">
-        <v>68.57507023501415</v>
+        <v>68.57507023501449</v>
       </c>
       <c r="M7" t="n">
-        <v>75.5939915923081</v>
+        <v>75.59399159230844</v>
       </c>
       <c r="N7" t="n">
-        <v>81.73343028761499</v>
+        <v>81.73343028761533</v>
       </c>
       <c r="O7" t="n">
-        <v>54.97578017569137</v>
+        <v>54.97578017569168</v>
       </c>
       <c r="P7" t="n">
-        <v>27.78676100235177</v>
+        <v>27.78676100235205</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2410322142397</v>
+        <v>110.2410322142395</v>
       </c>
       <c r="K8" t="n">
-        <v>216.473758780891</v>
+        <v>216.4737587808906</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140559</v>
+        <v>305.8293466140554</v>
       </c>
       <c r="M8" t="n">
-        <v>372.2834058662057</v>
+        <v>372.2834058662052</v>
       </c>
       <c r="N8" t="n">
-        <v>382.9677530873104</v>
+        <v>382.9677530873099</v>
       </c>
       <c r="O8" t="n">
-        <v>348.1556286974042</v>
+        <v>348.1556286974036</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109607</v>
+        <v>262.2932784109602</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.3119886183904</v>
+        <v>148.31198861839</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>46.65087734093967</v>
+        <v>46.6508773409395</v>
       </c>
       <c r="K9" t="n">
-        <v>158.678047216999</v>
+        <v>158.6780472169987</v>
       </c>
       <c r="L9" t="n">
-        <v>260.152662181806</v>
+        <v>260.1526621818056</v>
       </c>
       <c r="M9" t="n">
-        <v>323.1382782510199</v>
+        <v>323.1382782510195</v>
       </c>
       <c r="N9" t="n">
-        <v>346.2449737319514</v>
+        <v>346.2449737319509</v>
       </c>
       <c r="O9" t="n">
-        <v>294.3022689440065</v>
+        <v>294.302268944006</v>
       </c>
       <c r="P9" t="n">
-        <v>216.6751672332333</v>
+        <v>216.6751672332329</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.41818044892929</v>
+        <v>94.41818044892906</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>49.84612367850741</v>
+        <v>49.84612367850724</v>
       </c>
       <c r="L10" t="n">
-        <v>93.99375335563548</v>
+        <v>93.99375335563528</v>
       </c>
       <c r="M10" t="n">
-        <v>102.3944289806457</v>
+        <v>102.3944289806455</v>
       </c>
       <c r="N10" t="n">
-        <v>107.8966131767809</v>
+        <v>107.8966131767807</v>
       </c>
       <c r="O10" t="n">
-        <v>79.14171420769702</v>
+        <v>79.14171420769682</v>
       </c>
       <c r="P10" t="n">
-        <v>48.46489236084182</v>
+        <v>48.46489236084162</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317398</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396423</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367775</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462694</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902954</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193523</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243166</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683818</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924731</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678999</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674335</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641942</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>379.5262112417373</v>
+        <v>196.0580237059027</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071399</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625077</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.0464832629535</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096352</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191317</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899077</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060457</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396422</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367773</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902953</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193523</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243165</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
         <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774958</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674334</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641942</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238456</v>
+        <v>334.4034204366966</v>
       </c>
       <c r="O15" t="n">
-        <v>81.10138438501673</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071399</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625077</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,25 +35804,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
         <v>120.4022572998984</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367773</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902953</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243165</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678998</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>116.3353646931849</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641942</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238456</v>
+        <v>295.6084283580303</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992802</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625077</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,25 +36041,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
         <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
         <v>120.4022572998984</v>
@@ -36202,16 +36202,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>300.6896499849021</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36220,7 +36220,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36439,25 +36439,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>609.8085342983688</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,13 +36673,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>114.5501250924114</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36688,13 +36688,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,10 +36910,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36922,19 +36922,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>120.5443928316917</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>20.54758114884936</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37162,13 +37162,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>510.7887951929326</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37320,7 +37320,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243171</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,22 +37390,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>140.6875824748321</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37621,13 +37621,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>453.6331143610859</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37636,13 +37636,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295325</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998982</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37873,16 +37873,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>220.9409070342396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295325</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P43" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998982</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,31 +38013,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38092,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>226.5827468655557</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
         <v>264.3325884096349</v>
@@ -38183,19 +38183,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_24_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_24_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3778025.705770505</v>
+        <v>3779786.23607329</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -670,10 +670,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>187.5255871663203</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>187.5255871663203</v>
+        <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -712,13 +712,13 @@
         <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>187.5255871663203</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>6.396723986041825</v>
+        <v>173.9484321805918</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
     </row>
     <row r="3">
@@ -737,13 +737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>165.1725371760949</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>13.45644170423134</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -800,13 +800,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>187.5255871663203</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="X3" t="n">
-        <v>187.5255871663203</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="Y3" t="n">
-        <v>187.5255871663203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>52.2159462544349</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>52.21594625443443</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,16 +904,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>293.7114364025721</v>
+        <v>260.0959622803913</v>
       </c>
       <c r="H5" t="n">
-        <v>308.2302560714735</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>23.9424068042587</v>
       </c>
       <c r="S5" t="n">
-        <v>139.4987618372556</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,13 +955,13 @@
         <v>251.1015846853496</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -992,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2.693565385742584</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1022,25 +1022,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>44.33060630074775</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>141.3629830843606</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.5852120974427</v>
       </c>
       <c r="U6" t="n">
-        <v>84.07098562832888</v>
+        <v>225.8339906239991</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>16.04608921951057</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>149.5761777075323</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>36.9111576058913</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>52.81715403915738</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>233.3101748295737</v>
       </c>
       <c r="G8" t="n">
-        <v>411.8707348436268</v>
+        <v>11.87073484362677</v>
       </c>
       <c r="H8" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708299</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1226,7 +1226,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>20.27697994470624</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1268,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>20.27697994470635</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>18.15430933923925</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.52615597052887</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>31.68046530976816</v>
       </c>
     </row>
     <row r="11">
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722619</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560537</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1533,10 +1533,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>82.85993176808051</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1545,7 +1545,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1590,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722619</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576162</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1770,7 +1770,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>42.53134576113725</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428253</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722619</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576162</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560537</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>93.40444476188321</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712593</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2080,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722619</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444128</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2134,22 +2134,22 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784691</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560537</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>95.12712756824166</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>51.36569740310337</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560526</v>
       </c>
     </row>
     <row r="27">
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>95.12712756824166</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>9.146142788179397</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2955,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>20.9284728855285</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3088,7 +3088,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634814</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3325,7 +3325,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3429,16 +3429,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986279</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>83.06560892427999</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.524138292269</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.3752467101218</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016447</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.5229983365911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3742,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986279</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>4.019807611470221</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229314</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.524138292269</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.5229983365911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3994,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>120.1447214650588</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>393.8416170062759</v>
+        <v>35.17768229832528</v>
       </c>
       <c r="C2" t="n">
-        <v>393.8416170062759</v>
+        <v>35.17768229832528</v>
       </c>
       <c r="D2" t="n">
-        <v>393.8416170062759</v>
+        <v>35.17768229832528</v>
       </c>
       <c r="E2" t="n">
-        <v>393.8416170062759</v>
+        <v>35.17768229832528</v>
       </c>
       <c r="F2" t="n">
-        <v>204.4218319897908</v>
+        <v>28.2321815491218</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678515</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058987</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079188</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644761</v>
+        <v>347.1218190644753</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123838</v>
+        <v>509.4952041123827</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985595</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020278</v>
+        <v>734.4611726020264</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652812</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652812</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="S2" t="n">
-        <v>589.7227393823993</v>
+        <v>589.7227393823977</v>
       </c>
       <c r="T2" t="n">
-        <v>400.3029543659141</v>
+        <v>589.7227393823977</v>
       </c>
       <c r="U2" t="n">
-        <v>400.3029543659141</v>
+        <v>589.7227393823977</v>
       </c>
       <c r="V2" t="n">
-        <v>393.8416170062759</v>
+        <v>414.0172523312948</v>
       </c>
       <c r="W2" t="n">
-        <v>393.8416170062759</v>
+        <v>414.0172523312948</v>
       </c>
       <c r="X2" t="n">
-        <v>393.8416170062759</v>
+        <v>414.0172523312948</v>
       </c>
       <c r="Y2" t="n">
-        <v>393.8416170062759</v>
+        <v>224.59746731481</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.00204697330562</v>
+        <v>203.047441612242</v>
       </c>
       <c r="C3" t="n">
-        <v>15.00204697330562</v>
+        <v>28.59441233111502</v>
       </c>
       <c r="D3" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E3" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F3" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G3" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H3" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024219</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772652</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140251</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N3" t="n">
-        <v>512.500058754661</v>
+        <v>512.50005875466</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476359</v>
+        <v>649.2101578476347</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017076</v>
+        <v>739.5989987017061</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652812</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652812</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652812</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="T3" t="n">
-        <v>750.1023486652812</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="U3" t="n">
-        <v>750.1023486652812</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="V3" t="n">
-        <v>750.1023486652812</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="W3" t="n">
-        <v>560.6825636487961</v>
+        <v>560.6825636487948</v>
       </c>
       <c r="X3" t="n">
-        <v>371.2627786323109</v>
+        <v>371.2627786323101</v>
       </c>
       <c r="Y3" t="n">
-        <v>181.8429936158258</v>
+        <v>371.2627786323101</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L4" t="n">
-        <v>27.0396705623019</v>
+        <v>27.03967056230176</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170745</v>
+        <v>42.98993985170716</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396374</v>
+        <v>66.41847329396334</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702829038</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702829038</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702829038</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702829038</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702829038</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702829038</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="U4" t="n">
-        <v>67.74542702829038</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="V4" t="n">
-        <v>67.74542702829038</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="W4" t="n">
-        <v>67.74542702829038</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="X4" t="n">
-        <v>67.74542702829038</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y4" t="n">
-        <v>67.74542702829038</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>649.5254686559063</v>
+        <v>690.015003886823</v>
       </c>
       <c r="C5" t="n">
-        <v>649.5254686559063</v>
+        <v>690.015003886823</v>
       </c>
       <c r="D5" t="n">
-        <v>649.5254686559063</v>
+        <v>690.015003886823</v>
       </c>
       <c r="E5" t="n">
-        <v>649.5254686559063</v>
+        <v>304.2267512885788</v>
       </c>
       <c r="F5" t="n">
-        <v>642.5799679067028</v>
+        <v>297.2812505393753</v>
       </c>
       <c r="G5" t="n">
-        <v>345.9017493182461</v>
+        <v>34.55805631675783</v>
       </c>
       <c r="H5" t="n">
-        <v>34.55805631675759</v>
+        <v>34.55805631675783</v>
       </c>
       <c r="I5" t="n">
-        <v>34.55805631675759</v>
+        <v>34.55805631675783</v>
       </c>
       <c r="J5" t="n">
-        <v>111.6705539017212</v>
+        <v>111.6705539017224</v>
       </c>
       <c r="K5" t="n">
-        <v>277.9807166746963</v>
+        <v>277.9807166746991</v>
       </c>
       <c r="L5" t="n">
-        <v>521.2049416030741</v>
+        <v>521.2049416030786</v>
       </c>
       <c r="M5" t="n">
-        <v>823.5081935709151</v>
+        <v>823.5081935709215</v>
       </c>
       <c r="N5" t="n">
-        <v>1135.316836582748</v>
+        <v>1135.316836582756</v>
       </c>
       <c r="O5" t="n">
-        <v>1416.413635079236</v>
+        <v>1416.413635079246</v>
       </c>
       <c r="P5" t="n">
-        <v>1621.822248332754</v>
+        <v>1621.822248332765</v>
       </c>
       <c r="Q5" t="n">
-        <v>1727.902815837879</v>
+        <v>1727.902815837891</v>
       </c>
       <c r="R5" t="n">
-        <v>1727.902815837879</v>
+        <v>1703.718566540661</v>
       </c>
       <c r="S5" t="n">
-        <v>1586.994975598227</v>
+        <v>1703.718566540661</v>
       </c>
       <c r="T5" t="n">
-        <v>1586.994975598227</v>
+        <v>1703.718566540661</v>
       </c>
       <c r="U5" t="n">
-        <v>1333.357011269591</v>
+        <v>1450.080602212025</v>
       </c>
       <c r="V5" t="n">
-        <v>1002.29412392602</v>
+        <v>1450.080602212025</v>
       </c>
       <c r="W5" t="n">
-        <v>649.5254686559063</v>
+        <v>1450.080602212025</v>
       </c>
       <c r="X5" t="n">
-        <v>649.5254686559063</v>
+        <v>1076.614843950945</v>
       </c>
       <c r="Y5" t="n">
-        <v>649.5254686559063</v>
+        <v>1076.614843950945</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>663.7175082377064</v>
+        <v>666.4382813546183</v>
       </c>
       <c r="C6" t="n">
-        <v>489.2644789565794</v>
+        <v>491.9852520734913</v>
       </c>
       <c r="D6" t="n">
-        <v>340.3300692953281</v>
+        <v>343.0508424122401</v>
       </c>
       <c r="E6" t="n">
-        <v>181.0926142898726</v>
+        <v>183.8133874067846</v>
       </c>
       <c r="F6" t="n">
-        <v>34.55805631675759</v>
+        <v>37.27882943366953</v>
       </c>
       <c r="G6" t="n">
-        <v>34.55805631675759</v>
+        <v>37.27882943366953</v>
       </c>
       <c r="H6" t="n">
-        <v>34.55805631675759</v>
+        <v>34.55805631675783</v>
       </c>
       <c r="I6" t="n">
-        <v>34.55805631675759</v>
+        <v>34.55805631675783</v>
       </c>
       <c r="J6" t="n">
-        <v>61.66788464787503</v>
+        <v>61.66788464787581</v>
       </c>
       <c r="K6" t="n">
-        <v>186.1577239806057</v>
+        <v>186.1577239806074</v>
       </c>
       <c r="L6" t="n">
-        <v>399.8722171189968</v>
+        <v>399.8722171189997</v>
       </c>
       <c r="M6" t="n">
-        <v>668.6238185223485</v>
+        <v>668.6238185223528</v>
       </c>
       <c r="N6" t="n">
-        <v>958.897120035246</v>
+        <v>958.8971200352516</v>
       </c>
       <c r="O6" t="n">
-        <v>1202.220686228316</v>
+        <v>1202.220686228323</v>
       </c>
       <c r="P6" t="n">
-        <v>1378.176233639505</v>
+        <v>1378.176233639514</v>
       </c>
       <c r="Q6" t="n">
-        <v>1445.878660906546</v>
+        <v>1445.878660906555</v>
       </c>
       <c r="R6" t="n">
-        <v>1445.878660906546</v>
+        <v>1401.10027070378</v>
       </c>
       <c r="S6" t="n">
-        <v>1445.878660906546</v>
+        <v>1258.309378699375</v>
       </c>
       <c r="T6" t="n">
-        <v>1445.878660906546</v>
+        <v>1062.76876041913</v>
       </c>
       <c r="U6" t="n">
-        <v>1360.958473403183</v>
+        <v>834.6536183746863</v>
       </c>
       <c r="V6" t="n">
-        <v>1125.806365171441</v>
+        <v>834.6536183746863</v>
       </c>
       <c r="W6" t="n">
-        <v>871.5690084432392</v>
+        <v>834.6536183746863</v>
       </c>
       <c r="X6" t="n">
-        <v>663.7175082377064</v>
+        <v>834.6536183746863</v>
       </c>
       <c r="Y6" t="n">
-        <v>663.7175082377064</v>
+        <v>834.6536183746863</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>369.8190495857988</v>
+        <v>332.5350520040947</v>
       </c>
       <c r="C7" t="n">
-        <v>200.8828666578919</v>
+        <v>332.5350520040947</v>
       </c>
       <c r="D7" t="n">
-        <v>50.76622724555614</v>
+        <v>332.5350520040947</v>
       </c>
       <c r="E7" t="n">
-        <v>34.55805631675759</v>
+        <v>332.5350520040947</v>
       </c>
       <c r="F7" t="n">
-        <v>34.55805631675759</v>
+        <v>185.6451045061844</v>
       </c>
       <c r="G7" t="n">
-        <v>34.55805631675759</v>
+        <v>34.55805631675783</v>
       </c>
       <c r="H7" t="n">
-        <v>34.55805631675759</v>
+        <v>34.55805631675783</v>
       </c>
       <c r="I7" t="n">
-        <v>34.55805631675759</v>
+        <v>34.55805631675783</v>
       </c>
       <c r="J7" t="n">
-        <v>34.55805631675759</v>
+        <v>34.55805631675783</v>
       </c>
       <c r="K7" t="n">
-        <v>64.24066662574658</v>
+        <v>64.24066662574738</v>
       </c>
       <c r="L7" t="n">
-        <v>132.1299861584109</v>
+        <v>132.1299861584125</v>
       </c>
       <c r="M7" t="n">
-        <v>206.9680378347963</v>
+        <v>206.9680378347986</v>
       </c>
       <c r="N7" t="n">
-        <v>287.8841338195355</v>
+        <v>287.8841338195385</v>
       </c>
       <c r="O7" t="n">
-        <v>342.3101561934702</v>
+        <v>342.310156193474</v>
       </c>
       <c r="P7" t="n">
-        <v>369.8190495857988</v>
+        <v>369.8190495858031</v>
       </c>
       <c r="Q7" t="n">
-        <v>369.8190495857988</v>
+        <v>332.5350520040947</v>
       </c>
       <c r="R7" t="n">
-        <v>369.8190495857988</v>
+        <v>332.5350520040947</v>
       </c>
       <c r="S7" t="n">
-        <v>369.8190495857988</v>
+        <v>332.5350520040947</v>
       </c>
       <c r="T7" t="n">
-        <v>369.8190495857988</v>
+        <v>332.5350520040947</v>
       </c>
       <c r="U7" t="n">
-        <v>369.8190495857988</v>
+        <v>332.5350520040947</v>
       </c>
       <c r="V7" t="n">
-        <v>369.8190495857988</v>
+        <v>332.5350520040947</v>
       </c>
       <c r="W7" t="n">
-        <v>369.8190495857988</v>
+        <v>332.5350520040947</v>
       </c>
       <c r="X7" t="n">
-        <v>369.8190495857988</v>
+        <v>332.5350520040947</v>
       </c>
       <c r="Y7" t="n">
-        <v>369.8190495857988</v>
+        <v>332.5350520040947</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1310.09075811159</v>
+        <v>1018.25489660364</v>
       </c>
       <c r="C8" t="n">
-        <v>1310.09075811159</v>
+        <v>649.2923796632278</v>
       </c>
       <c r="D8" t="n">
-        <v>1310.09075811159</v>
+        <v>291.0266810564773</v>
       </c>
       <c r="E8" t="n">
-        <v>1256.740097465976</v>
+        <v>291.0266810564773</v>
       </c>
       <c r="F8" t="n">
-        <v>845.7541926763687</v>
+        <v>55.35983779428172</v>
       </c>
       <c r="G8" t="n">
-        <v>429.7231473797759</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H8" t="n">
-        <v>122.3223344947425</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I8" t="n">
         <v>43.36919653809306</v>
       </c>
       <c r="J8" t="n">
-        <v>152.5078184301901</v>
+        <v>152.50781843019</v>
       </c>
       <c r="K8" t="n">
         <v>366.8168396232717</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711865</v>
+        <v>669.5878927711866</v>
       </c>
       <c r="M8" t="n">
         <v>1038.14846457873</v>
@@ -4831,25 +4831,25 @@
         <v>2168.459826904653</v>
       </c>
       <c r="S8" t="n">
-        <v>2036.325171642784</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="T8" t="n">
-        <v>2036.325171642784</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="U8" t="n">
-        <v>2036.325171642784</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="V8" t="n">
-        <v>2036.325171642784</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="W8" t="n">
-        <v>1683.55651637267</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="X8" t="n">
-        <v>1310.09075811159</v>
+        <v>1794.994068643573</v>
       </c>
       <c r="Y8" t="n">
-        <v>1310.09075811159</v>
+        <v>1404.854736667761</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>693.0104463829875</v>
+        <v>672.5286484590418</v>
       </c>
       <c r="C9" t="n">
-        <v>518.5574171018606</v>
+        <v>498.0756191779149</v>
       </c>
       <c r="D9" t="n">
-        <v>369.6230074406093</v>
+        <v>349.1412095166636</v>
       </c>
       <c r="E9" t="n">
-        <v>210.3855524351538</v>
+        <v>189.9037545112081</v>
       </c>
       <c r="F9" t="n">
-        <v>63.85099446203876</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G9" t="n">
         <v>43.36919653809306</v>
@@ -4916,19 +4916,19 @@
         <v>1766.227047333487</v>
       </c>
       <c r="U9" t="n">
-        <v>1766.227047333487</v>
+        <v>1745.745249409541</v>
       </c>
       <c r="V9" t="n">
-        <v>1531.074939101744</v>
+        <v>1510.593141177798</v>
       </c>
       <c r="W9" t="n">
-        <v>1276.837582373542</v>
+        <v>1256.355784449597</v>
       </c>
       <c r="X9" t="n">
-        <v>1068.986082168009</v>
+        <v>1048.504284244064</v>
       </c>
       <c r="Y9" t="n">
-        <v>861.2257834030556</v>
+        <v>840.7439854791098</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>506.6265632319841</v>
+        <v>488.2888770307322</v>
       </c>
       <c r="C10" t="n">
-        <v>506.6265632319841</v>
+        <v>488.2888770307322</v>
       </c>
       <c r="D10" t="n">
-        <v>356.5099238196483</v>
+        <v>338.1722376183965</v>
       </c>
       <c r="E10" t="n">
-        <v>208.5968302372552</v>
+        <v>190.2591440360034</v>
       </c>
       <c r="F10" t="n">
-        <v>61.70688273934482</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G10" t="n">
-        <v>61.70688273934482</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H10" t="n">
-        <v>61.70688273934482</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I10" t="n">
-        <v>61.70688273934482</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J10" t="n">
         <v>43.36919653809306</v>
@@ -4983,31 +4983,31 @@
         <v>520.2893470405991</v>
       </c>
       <c r="Q10" t="n">
-        <v>506.6265632319841</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="R10" t="n">
-        <v>506.6265632319841</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="S10" t="n">
-        <v>506.6265632319841</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="T10" t="n">
-        <v>506.6265632319841</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="U10" t="n">
-        <v>506.6265632319841</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="V10" t="n">
-        <v>506.6265632319841</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="W10" t="n">
-        <v>506.6265632319841</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="X10" t="n">
-        <v>506.6265632319841</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Y10" t="n">
-        <v>506.6265632319841</v>
+        <v>488.2888770307322</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,64 +5029,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797176</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>95.5840502527391</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803939</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516146</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167374</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M12" t="n">
-        <v>1074.481071167374</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N12" t="n">
-        <v>1702.07903472198</v>
+        <v>1804.131916132772</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>803.2707707770328</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>634.3345878491259</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>550.637687073287</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.70136564882</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1205.711814750803</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>984.9192356072725</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5254,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,22 +5266,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,40 +5290,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,16 +5351,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468473</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
         <v>1072.713683962606</v>
@@ -5369,7 +5369,7 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400721</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121652</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121652</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121652</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121652</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270452</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X16" t="n">
-        <v>916.294644713842</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703119</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,37 +5503,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5542,25 +5542,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
         <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5597,22 +5597,22 @@
         <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N18" t="n">
-        <v>1964.511902868375</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876693</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597624</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D19" t="n">
-        <v>411.9631215597624</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E19" t="n">
-        <v>411.9631215597624</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>411.9631215597624</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
         <v>317.6151975578601</v>
@@ -5700,25 +5700,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614391</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.547769317909</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="20">
@@ -5734,37 +5734,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362676</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5794,7 +5794,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5886,7 +5886,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876688</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C22" t="n">
         <v>484.8112968429803</v>
@@ -5937,25 +5937,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179085</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="23">
@@ -5980,7 +5980,7 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -5989,22 +5989,22 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>762.5348780504994</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2395.078540748843</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2106.003314093041</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1851.318825887154</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6363,22 +6363,22 @@
         <v>580.8993044876688</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597619</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D28" t="n">
-        <v>411.9631215597619</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="E28" t="n">
-        <v>411.9631215597619</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="F28" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>244.7670222746419</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>103.0551911168399</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6454,28 +6454,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6484,7 +6484,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6557,10 +6557,10 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876688</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>261.8464821474262</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>261.8464821474262</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>114.9565346495158</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6694,25 +6694,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6721,28 +6721,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6773,25 +6773,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="35">
@@ -6931,16 +6931,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6952,25 +6952,25 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123003</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,16 +7010,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7028,7 +7028,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578603</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7162,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7207,7 +7207,7 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
@@ -7308,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400697</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121627</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121627</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E40" t="n">
-        <v>261.012762333092</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>261.012762333092</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7350,34 +7350,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487566</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510507</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854705</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648818</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611857</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138398</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703096</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="41">
@@ -7408,25 +7408,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876673</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>411.9631215597603</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>407.9027098310025</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310025</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>261.012762333092</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7569,13 +7569,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7587,34 +7587,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235164</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258105</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602303</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396416</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359455</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614374</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179072</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7630,16 +7630,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7648,28 +7648,28 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075821</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>931.4710609784063</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>762.5348780504994</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>612.4182386381636</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>464.5051450557705</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603201</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>2106.003314093041</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1851.318825887154</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1561.901655850193</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1333.912104952176</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>1113.119525808646</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -23421,10 +23421,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>65.75554125013184</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>106.0841272570751</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194133</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23904,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>72.11969353038563</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>72.11969353038532</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>72.11969353038617</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24177,7 +24177,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24369,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>166.0397529241849</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24612,7 +24612,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>50.29392045468958</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>72.11969353038614</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24843,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>144.5956654067404</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25317,16 +25317,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182125</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>63.3683537222893</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229314</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.294712846224</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856565</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>144.5956654067423</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465693</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.294712846224</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856565</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.3752467101218</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>166.0397529241853</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>640177.2699200503</v>
+        <v>640177.2699200504</v>
       </c>
     </row>
     <row r="7">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>640177.2699200503</v>
+        <v>640177.2699200504</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>640177.2699200504</v>
+        <v>640177.2699200503</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>640177.2699200502</v>
+        <v>640177.2699200503</v>
       </c>
     </row>
     <row r="15">
@@ -26316,16 +26316,16 @@
         <v>800515.725617676</v>
       </c>
       <c r="C2" t="n">
+        <v>800515.725617676</v>
+      </c>
+      <c r="D2" t="n">
         <v>800515.7256176763</v>
-      </c>
-      <c r="D2" t="n">
-        <v>800515.7256176764</v>
       </c>
       <c r="E2" t="n">
         <v>786967.934697756</v>
       </c>
       <c r="F2" t="n">
-        <v>786967.9346977556</v>
+        <v>786967.9346977557</v>
       </c>
       <c r="G2" t="n">
         <v>786967.9346977556</v>
@@ -26337,22 +26337,22 @@
         <v>786967.934697756</v>
       </c>
       <c r="J2" t="n">
+        <v>786967.9346977555</v>
+      </c>
+      <c r="K2" t="n">
         <v>786967.9346977558</v>
-      </c>
-      <c r="K2" t="n">
-        <v>786967.934697756</v>
       </c>
       <c r="L2" t="n">
         <v>786967.934697756</v>
       </c>
       <c r="M2" t="n">
-        <v>786967.9346977562</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="N2" t="n">
         <v>786967.9346977558</v>
       </c>
       <c r="O2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="P2" t="n">
         <v>786967.9346977558</v>
@@ -26365,40 +26365,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208459</v>
+        <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>270592.3620253104</v>
+        <v>270592.3620253144</v>
       </c>
       <c r="D3" t="n">
-        <v>115410.0540231943</v>
+        <v>115410.054023191</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.2075742655</v>
+        <v>601443.2075742648</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>6.983620031470698e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854471</v>
+        <v>49064.94472854465</v>
       </c>
       <c r="K3" t="n">
-        <v>62913.63765881924</v>
+        <v>62913.63765882017</v>
       </c>
       <c r="L3" t="n">
-        <v>27875.2536219752</v>
+        <v>27875.25362197437</v>
       </c>
       <c r="M3" t="n">
-        <v>157146.3805515982</v>
+        <v>157146.380551598</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>278536.5648341298</v>
+        <v>278536.5648341299</v>
       </c>
       <c r="C4" t="n">
-        <v>206604.4229263466</v>
+        <v>206604.4229263457</v>
       </c>
       <c r="D4" t="n">
         <v>174202.9900888977</v>
       </c>
       <c r="E4" t="n">
-        <v>15436.64000687961</v>
+        <v>15436.6400068797</v>
       </c>
       <c r="F4" t="n">
-        <v>15436.64000687963</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="G4" t="n">
-        <v>15436.64000687968</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="H4" t="n">
         <v>15436.64000687967</v>
@@ -26441,22 +26441,22 @@
         <v>15436.64000687967</v>
       </c>
       <c r="J4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687971</v>
       </c>
       <c r="K4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="L4" t="n">
+        <v>15436.64000687972</v>
+      </c>
+      <c r="M4" t="n">
         <v>15436.64000687967</v>
-      </c>
-      <c r="M4" t="n">
-        <v>15436.64000687963</v>
       </c>
       <c r="N4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="O4" t="n">
-        <v>15436.64000687962</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="P4" t="n">
         <v>15436.64000687967</v>
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.8004116136</v>
+        <v>56985.80041161357</v>
       </c>
       <c r="C5" t="n">
-        <v>76435.73471936808</v>
+        <v>76435.73471936832</v>
       </c>
       <c r="D5" t="n">
         <v>85199.08185587224</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-126363.5421489132</v>
+        <v>-126363.5421489128</v>
       </c>
       <c r="C6" t="n">
-        <v>246883.2059466512</v>
+        <v>246883.2059466476</v>
       </c>
       <c r="D6" t="n">
-        <v>425703.5996497122</v>
+        <v>425703.5996497154</v>
       </c>
       <c r="E6" t="n">
-        <v>68618.17803834674</v>
+        <v>68930.81936726863</v>
       </c>
       <c r="F6" t="n">
-        <v>670061.3856126119</v>
+        <v>670374.0269415331</v>
       </c>
       <c r="G6" t="n">
-        <v>670061.3856126119</v>
+        <v>670374.026941533</v>
       </c>
       <c r="H6" t="n">
-        <v>670061.3856126124</v>
+        <v>670374.0269415337</v>
       </c>
       <c r="I6" t="n">
-        <v>670061.3856126121</v>
+        <v>670374.0269415335</v>
       </c>
       <c r="J6" t="n">
-        <v>620996.4408840674</v>
+        <v>621309.0822129884</v>
       </c>
       <c r="K6" t="n">
-        <v>607147.747953793</v>
+        <v>607460.3892827133</v>
       </c>
       <c r="L6" t="n">
-        <v>642186.131990637</v>
+        <v>642498.7733195592</v>
       </c>
       <c r="M6" t="n">
-        <v>512915.0050610144</v>
+        <v>513227.6463899353</v>
       </c>
       <c r="N6" t="n">
-        <v>670061.3856126121</v>
+        <v>670374.0269415334</v>
       </c>
       <c r="O6" t="n">
-        <v>670061.3856126121</v>
+        <v>670374.0269415334</v>
       </c>
       <c r="P6" t="n">
-        <v>670061.3856126121</v>
+        <v>670374.0269415334</v>
       </c>
     </row>
   </sheetData>
@@ -26694,22 +26694,22 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8.729525039338373e-14</v>
+        <v>3.419150020582837e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.469940912905</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>758.8996292950604</v>
+        <v>758.8996292950632</v>
       </c>
       <c r="D3" t="n">
         <v>853.7106645376841</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663203</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>431.9757039594698</v>
+        <v>431.9757039594729</v>
       </c>
       <c r="D4" t="n">
         <v>542.1149567261632</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26822,10 +26822,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-8.729525039338373e-14</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26928,19 +26928,19 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>8.729525039338373e-14</v>
+        <v>-3.218023548783847e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.637173569366685e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>-8.729525039338373e-14</v>
+        <v>-3.419150020582837e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>-3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.469940912905</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>210.4296883821554</v>
+        <v>210.4296883821586</v>
       </c>
       <c r="D3" t="n">
-        <v>94.81103524262369</v>
+        <v>94.81103524262096</v>
       </c>
       <c r="E3" t="n">
-        <v>514.2648358039901</v>
+        <v>514.2648358039894</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>-2.273736754432321e-13</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663203</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>244.4501167931495</v>
+        <v>244.450116793153</v>
       </c>
       <c r="D4" t="n">
-        <v>110.1392527666934</v>
+        <v>110.1392527666903</v>
       </c>
       <c r="E4" t="n">
-        <v>630.5933313734856</v>
+        <v>630.5933313734849</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663203</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931495</v>
+        <v>244.450116793153</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666934</v>
+        <v>110.1392527666901</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734859</v>
+        <v>630.5933313734852</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27165,10 +27165,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>8.729525039338373e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.637173569366685e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663203</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931495</v>
+        <v>244.450116793153</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666934</v>
+        <v>110.1392527666903</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734856</v>
+        <v>630.5933313734849</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>195.2082544971607</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27390,10 +27390,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>219.3504585753911</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>225.5722460637377</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
@@ -27426,19 +27426,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666367</v>
+        <v>77.08171901666378</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>25.91829388988648</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
         <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
-        <v>321.3555344840931</v>
+        <v>153.8038262895431</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>198.7123514897337</v>
       </c>
     </row>
     <row r="3">
@@ -27457,13 +27457,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.360646473772391</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>133.9886238604074</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27478,10 +27478,10 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409146</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265831</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27505,13 +27505,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846313</v>
+        <v>72.4328956284632</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920012</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U3" t="n">
         <v>225.8637684100909</v>
@@ -27520,13 +27520,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>64.16939599459931</v>
+        <v>64.16939599459971</v>
       </c>
       <c r="X3" t="n">
-        <v>18.24739803715718</v>
+        <v>18.24739803715758</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.15710861098407</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>127.6160339275024</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27554,16 +27554,16 @@
         <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318195</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708666</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825411</v>
+        <v>57.06999962825418</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402843</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,13 +27578,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709376</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159719</v>
+        <v>68.68604055159726</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106903</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
         <v>206.7802557954962</v>
@@ -27596,7 +27596,7 @@
         <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>199.9216970693936</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27624,19 +27624,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>118.5404483314773</v>
+        <v>152.1559224536581</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>308.2302560714734</v>
       </c>
       <c r="I5" t="n">
-        <v>92.85788772760058</v>
+        <v>92.85788772760017</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>23.94240680425938</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>139.4987618372554</v>
       </c>
       <c r="T5" t="n">
         <v>209.7407415149288</v>
@@ -27675,13 +27675,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27694,7 +27694,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -27712,10 +27712,10 @@
         <v>135.7111670171797</v>
       </c>
       <c r="H6" t="n">
-        <v>96.47037835246134</v>
+        <v>93.77681296671869</v>
       </c>
       <c r="I6" t="n">
-        <v>43.32085084937523</v>
+        <v>43.32085084937503</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,25 +27742,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>44.3306063007481</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>141.3629830843607</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.5852120974427</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>141.7630049956702</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27776,28 +27776,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>130.3878734270586</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6224718302218</v>
+        <v>17.04629412268952</v>
       </c>
       <c r="H7" t="n">
         <v>150.0598964836597</v>
       </c>
       <c r="I7" t="n">
-        <v>114.295721259913</v>
+        <v>114.2957212599129</v>
       </c>
       <c r="J7" t="n">
-        <v>30.24193919304064</v>
+        <v>30.24193919304028</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,19 +27818,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>36.91115760589172</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>115.7603165166225</v>
+        <v>115.7603165166223</v>
       </c>
       <c r="S7" t="n">
-        <v>200.1672441130603</v>
+        <v>200.1672441130602</v>
       </c>
       <c r="T7" t="n">
         <v>222.0983299894507</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2443834913144</v>
+        <v>286.2443834913143</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>329.1132160331044</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>173.5658709121378</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
         <v>208.0722578696039</v>
@@ -27915,13 +27915,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27946,7 +27946,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>115.230253902329</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H9" t="n">
         <v>94.50081326185514</v>
@@ -27988,7 +27988,7 @@
         <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8205739680685</v>
+        <v>205.5435940233622</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28034,7 +28034,7 @@
         <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>18.15430933923925</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>9.068535313726665</v>
+        <v>22.59469128425553</v>
       </c>
       <c r="R10" t="n">
         <v>108.0728512656386</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>186.9041880423266</v>
       </c>
     </row>
     <row r="11">
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-8.729525039338373e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>-8.729525039338373e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-8.729525039338373e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-8.729525039338373e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-8.729525039338373e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-8.729525039338373e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-8.729525039338373e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-8.729525039338373e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-8.729525039338373e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>-8.729525039338373e-14</v>
+        <v>7.073183418281682e-13</v>
       </c>
       <c r="V11" t="n">
-        <v>-8.729525039338373e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-8.729525039338373e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>-8.729525039338373e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>-8.729525039338373e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28329,22 +28329,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>-8.729525039338373e-14</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-8.729525039338373e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>-8.729525039338373e-14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>-8.729525039338373e-14</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-8.729525039338373e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>-8.729525039338373e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28380,16 +28380,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-8.729525039338373e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>-8.729525039338373e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>-8.729525039338373e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>-8.729525039338373e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -28563,25 +28563,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-8.729525039338373e-14</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-8.729525039338373e-14</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>-8.729525039338373e-14</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>-8.729525039338373e-14</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>-8.729525039338373e-14</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>-8.729525039338373e-14</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28617,22 +28617,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-8.729525039338373e-14</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>-8.729525039338373e-14</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>-8.729525039338373e-14</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>-8.729525039338373e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28809,7 +28809,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>-5.160738706884473e-14</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -28818,7 +28818,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28854,22 +28854,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-8.729525039338373e-14</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>-8.729525039338373e-14</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>-8.729525039338373e-14</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>-8.729525039338373e-14</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>-8.729525039338373e-14</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>-8.729525039338373e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -29343,7 +29343,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>9.56674739427399e-13</v>
       </c>
     </row>
     <row r="27">
@@ -29808,7 +29808,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -30240,7 +30240,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>-1.194754858812222e-13</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30279,7 +30279,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-1.194754858812222e-13</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>-1.194754858812222e-13</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>-1.194754858812222e-13</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>-1.194754858812222e-13</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.194754858812222e-13</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>-1.194754858812222e-13</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>-1.194754858812222e-13</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>-1.194754858812222e-13</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>-1.194754858812222e-13</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>-1.194754858812222e-13</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>-1.194754858812222e-13</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>-1.194754858812222e-13</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>-1.194754858812222e-13</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>-1.194754858812222e-13</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>-1.194754858812222e-13</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>-1.194754858812222e-13</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>-1.194754858812222e-13</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>-1.194754858812222e-13</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>-1.194754858812222e-13</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>-1.194754858812222e-13</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>-1.194754858812222e-13</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>-1.194754858812222e-13</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>-1.194754858812222e-13</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>-1.194754858812222e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30462,7 +30462,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>-1.194754858812222e-13</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-1.194754858812222e-13</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>-1.194754858812222e-13</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>-1.194754858812222e-13</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>-1.194754858812222e-13</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.194754858812222e-13</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>-1.194754858812222e-13</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>-1.194754858812222e-13</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>-1.194754858812222e-13</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>-1.194754858812222e-13</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>-1.194754858812222e-13</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>-1.194754858812222e-13</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>-1.194754858812222e-13</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>-1.194754858812222e-13</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>-1.194754858812222e-13</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>-1.194754858812222e-13</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>-1.194754858812222e-13</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>-1.194754858812222e-13</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>-1.194754858812222e-13</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>-1.194754858812222e-13</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>-1.194754858812222e-13</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>-1.194754858812222e-13</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>-1.194754858812222e-13</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>-1.194754858812222e-13</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>-1.194754858812222e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077003</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954487</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043125</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655545</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528641</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672895</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470276</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470027</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622682</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244297</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151094</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974685</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619227</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924588</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061602</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435305</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590854</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340084</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621738</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405035</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975332</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829656</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292676</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628874</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936716</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550082</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288822</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820373</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390168</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445827</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620023</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639164</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>69.925421811142</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276992</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682167</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604416</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592434</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820539</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784866</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647913</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147604</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181398</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061366</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.050852781085668</v>
+        <v>3.050852781085679</v>
       </c>
       <c r="H5" t="n">
-        <v>31.2445460442936</v>
+        <v>31.24454604429372</v>
       </c>
       <c r="I5" t="n">
-        <v>117.6180018428053</v>
+        <v>117.6180018428057</v>
       </c>
       <c r="J5" t="n">
-        <v>258.9373162286699</v>
+        <v>258.9373162286709</v>
       </c>
       <c r="K5" t="n">
-        <v>388.0799144520263</v>
+        <v>388.0799144520277</v>
       </c>
       <c r="L5" t="n">
-        <v>481.4474502511769</v>
+        <v>481.4474502511787</v>
       </c>
       <c r="M5" t="n">
-        <v>535.7030533968092</v>
+        <v>535.7030533968111</v>
       </c>
       <c r="N5" t="n">
-        <v>544.3712888610688</v>
+        <v>544.3712888610709</v>
       </c>
       <c r="O5" t="n">
-        <v>514.0343715191482</v>
+        <v>514.0343715191501</v>
       </c>
       <c r="P5" t="n">
-        <v>438.7164434860957</v>
+        <v>438.7164434860973</v>
       </c>
       <c r="Q5" t="n">
-        <v>329.4577782634651</v>
+        <v>329.4577782634663</v>
       </c>
       <c r="R5" t="n">
-        <v>191.6431310098727</v>
+        <v>191.6431310098734</v>
       </c>
       <c r="S5" t="n">
-        <v>69.52130774898973</v>
+        <v>69.52130774898997</v>
       </c>
       <c r="T5" t="n">
-        <v>13.35510804920252</v>
+        <v>13.35510804920257</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2440682224868534</v>
+        <v>0.2440682224868543</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.632350146030885</v>
+        <v>1.632350146030891</v>
       </c>
       <c r="H6" t="n">
-        <v>15.76506588403513</v>
+        <v>15.76506588403518</v>
       </c>
       <c r="I6" t="n">
-        <v>56.20152915062476</v>
+        <v>56.20152915062497</v>
       </c>
       <c r="J6" t="n">
-        <v>154.2212916475934</v>
+        <v>154.2212916475939</v>
       </c>
       <c r="K6" t="n">
-        <v>263.5887514316627</v>
+        <v>263.5887514316636</v>
       </c>
       <c r="L6" t="n">
-        <v>354.4276051721884</v>
+        <v>354.4276051721897</v>
       </c>
       <c r="M6" t="n">
-        <v>413.6002979658079</v>
+        <v>413.6002979658094</v>
       </c>
       <c r="N6" t="n">
-        <v>424.547067146866</v>
+        <v>424.5470671468675</v>
       </c>
       <c r="O6" t="n">
-        <v>388.3776244374448</v>
+        <v>388.3776244374461</v>
       </c>
       <c r="P6" t="n">
-        <v>311.7072835872485</v>
+        <v>311.7072835872497</v>
       </c>
       <c r="Q6" t="n">
-        <v>208.3680642547494</v>
+        <v>208.3680642547502</v>
       </c>
       <c r="R6" t="n">
-        <v>101.3488976632159</v>
+        <v>101.3488976632162</v>
       </c>
       <c r="S6" t="n">
-        <v>30.32018801947716</v>
+        <v>30.32018801947727</v>
       </c>
       <c r="T6" t="n">
-        <v>6.579516597378871</v>
+        <v>6.579516597378895</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1073914569757161</v>
+        <v>0.1073914569757165</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.368507528236994</v>
+        <v>1.368507528236999</v>
       </c>
       <c r="H7" t="n">
-        <v>12.16727602377983</v>
+        <v>12.16727602377987</v>
       </c>
       <c r="I7" t="n">
-        <v>41.15475366734525</v>
+        <v>41.1547536673454</v>
       </c>
       <c r="J7" t="n">
-        <v>96.75348224635547</v>
+        <v>96.75348224635583</v>
       </c>
       <c r="K7" t="n">
-        <v>158.9956928260798</v>
+        <v>158.9956928260804</v>
       </c>
       <c r="L7" t="n">
-        <v>203.4597465162528</v>
+        <v>203.4597465162535</v>
       </c>
       <c r="M7" t="n">
-        <v>214.5197755399135</v>
+        <v>214.5197755399143</v>
       </c>
       <c r="N7" t="n">
-        <v>209.4189747528485</v>
+        <v>209.4189747528493</v>
       </c>
       <c r="O7" t="n">
-        <v>193.4323186275345</v>
+        <v>193.4323186275352</v>
       </c>
       <c r="P7" t="n">
-        <v>165.5147650514997</v>
+        <v>165.5147650515003</v>
       </c>
       <c r="Q7" t="n">
-        <v>114.5938440235541</v>
+        <v>114.5938440235545</v>
       </c>
       <c r="R7" t="n">
-        <v>61.53307486054701</v>
+        <v>61.53307486054723</v>
       </c>
       <c r="S7" t="n">
-        <v>23.84935392391197</v>
+        <v>23.84935392391206</v>
       </c>
       <c r="T7" t="n">
-        <v>5.847259438830791</v>
+        <v>5.847259438830813</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07464586517656339</v>
+        <v>0.07464586517656367</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>338.6542681503472</v>
+        <v>198.5607970756959</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,19 +32080,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>465.7451325200299</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32317,25 +32317,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>581.3243739860823</v>
       </c>
       <c r="N18" t="n">
-        <v>426.9501404413636</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
@@ -33277,13 +33277,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>154.5219885631796</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33502,7 +33502,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>173.8200325543357</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33672,7 +33672,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460039</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
         <v>790.8204499236507</v>
@@ -33748,10 +33748,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868222</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788355</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973023</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197549</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504118</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405815</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656916013</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065995</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781483</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606293</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755149</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996323</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848231</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855714</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440765007</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646089</v>
+        <v>12.15921574646077</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061166</v>
+        <v>16.11138312061152</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520837</v>
+        <v>23.66518529520826</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400637</v>
+        <v>1.340357307400524</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>77.89141170198366</v>
+        <v>77.89141170198457</v>
       </c>
       <c r="K5" t="n">
-        <v>167.9900634070458</v>
+        <v>167.9900634070472</v>
       </c>
       <c r="L5" t="n">
-        <v>245.6810352811897</v>
+        <v>245.6810352811914</v>
       </c>
       <c r="M5" t="n">
-        <v>305.3568201695365</v>
+        <v>305.3568201695384</v>
       </c>
       <c r="N5" t="n">
-        <v>314.9582252644779</v>
+        <v>314.9582252644799</v>
       </c>
       <c r="O5" t="n">
-        <v>283.9361600974614</v>
+        <v>283.9361600974634</v>
       </c>
       <c r="P5" t="n">
-        <v>207.4834477308262</v>
+        <v>207.4834477308278</v>
       </c>
       <c r="Q5" t="n">
-        <v>107.1520883890156</v>
+        <v>107.1520883890168</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>27.38366498092671</v>
+        <v>27.38366498092725</v>
       </c>
       <c r="K6" t="n">
-        <v>125.7473124573037</v>
+        <v>125.7473124573046</v>
       </c>
       <c r="L6" t="n">
-        <v>215.8732253923142</v>
+        <v>215.8732253923155</v>
       </c>
       <c r="M6" t="n">
-        <v>271.4662640437896</v>
+        <v>271.4662640437911</v>
       </c>
       <c r="N6" t="n">
-        <v>293.2053550635327</v>
+        <v>293.2053550635342</v>
       </c>
       <c r="O6" t="n">
-        <v>245.7813799930003</v>
+        <v>245.7813799930017</v>
       </c>
       <c r="P6" t="n">
-        <v>177.7328761729183</v>
+        <v>177.7328761729194</v>
       </c>
       <c r="Q6" t="n">
-        <v>68.38629016872792</v>
+        <v>68.38629016872869</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>29.98243465554444</v>
+        <v>29.98243465554501</v>
       </c>
       <c r="L7" t="n">
-        <v>68.57507023501449</v>
+        <v>68.57507023501523</v>
       </c>
       <c r="M7" t="n">
-        <v>75.59399159230844</v>
+        <v>75.59399159230924</v>
       </c>
       <c r="N7" t="n">
-        <v>81.73343028761533</v>
+        <v>81.73343028761607</v>
       </c>
       <c r="O7" t="n">
-        <v>54.97578017569168</v>
+        <v>54.97578017569239</v>
       </c>
       <c r="P7" t="n">
-        <v>27.78676100235205</v>
+        <v>27.78676100235265</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>196.0580237059027</v>
+        <v>55.96455263125147</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,22 +35725,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>334.4034204366966</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35965,25 +35965,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>439.190340064064</v>
       </c>
       <c r="N18" t="n">
-        <v>295.6084283580303</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
         <v>37.00975247789214</v>
@@ -36925,13 +36925,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>20.54758114884936</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37150,7 +37150,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>35.97859357997668</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37320,7 +37320,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243171</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
@@ -37396,10 +37396,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295325</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295325</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
